--- a/Work/Modern Ways/Talk Time/Lesson Deployment2/Product/Twogram Threegram Youtube Link Selected.xlsx
+++ b/Work/Modern Ways/Talk Time/Lesson Deployment2/Product/Twogram Threegram Youtube Link Selected.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="938">
   <si>
     <t xml:space="preserve">search_string</t>
   </si>
@@ -1036,225 +1036,222 @@
     <t xml:space="preserve">https://www.youtube.com/watch?v=TPShfpgrg6k&amp;t=2316s</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=b88hhCCKu4E&amp;t=4974s</t>
+    <t xml:space="preserve">daha yeni geldi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=i5qd1RMfkRE&amp;t=1773s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i5qd1RMfkRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=vFqCyRdVfXI&amp;t=687s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vFqCyRdVfXI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=1wSNs8fpIdk&amp;t=658s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1wSNs8fpIdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=JV6ZUdw_lXQ&amp;t=7148s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JV6ZUdw_lXQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=2zp6o_3CRzU&amp;t=2699s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2zp6o_3CRzU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=EFEFEcYl9es&amp;t=2040s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EFEFEcYl9es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=gl486Y5GB0w&amp;t=130s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gl486Y5GB0w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bir dakika içinde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=YYCPETGxTuE&amp;t=795s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YYCPETGxTuE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=K1UKsLlNvUo&amp;t=133s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1UKsLlNvUo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=O1pUs5EpWVQ&amp;t=783s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O1pUs5EpWVQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=UkA5tTr8JFQ&amp;t=4268s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UkA5tTr8JFQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=8WIjnu3QRus&amp;t=3692s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8WIjnu3QRus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=kx99oKm_K_U&amp;t=5289s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kx99oKm_K_U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=MfRXdjOznRQ&amp;t=387s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MfRXdjOznRQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ona ne oldu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=n4NhvxPxpuw&amp;t=831s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n4NhvxPxpuw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=vjPoFyTUt8Q&amp;t=98s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vjPoFyTUt8Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=FfW2yyxBHpg&amp;t=858s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FfW2yyxBHpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tamam devam et</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=Bbaal2Neohk&amp;t=5732s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bbaal2Neohk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=PwGdpbguE4w&amp;t=236s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PwGdpbguE4w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=xPgddk3AnRQ&amp;t=201s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xPgddk3AnRQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=xPgddk3AnRQ&amp;t=428s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=kulZ_sWzBR0&amp;t=2786s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kulZ_sWzBR0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gerçekten çok güzel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=_2oPQqf2x28&amp;t=510s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_2oPQqf2x28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=y5Tib_IRHk0&amp;t=462s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y5Tib_IRHk0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=WuJWc_b33FA&amp;t=2722s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WuJWc_b33FA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=r4o0Vg6NQNc&amp;t=3385s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r4o0Vg6NQNc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=O5raFzyCm70&amp;t=137s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O5raFzyCm70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=kqygC_F0bJk&amp;t=532s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kqygC_F0bJk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=l_G2uCqqWOA&amp;t=177s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l_G2uCqqWOA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bana izin ver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=OQqWR2Zii_8&amp;t=6180s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OQqWR2Zii_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=lNfbZbkcVVE&amp;t=2739s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lNfbZbkcVVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bize yardım et</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=udNdqhGlkSA&amp;t=624s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">udNdqhGlkSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=b88hhCCKu4E&amp;t=7456s</t>
   </si>
   <si>
     <t xml:space="preserve">b88hhCCKu4E</t>
   </si>
   <si>
-    <t xml:space="preserve">daha yeni geldi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=i5qd1RMfkRE&amp;t=1773s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i5qd1RMfkRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=vFqCyRdVfXI&amp;t=687s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vFqCyRdVfXI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=1wSNs8fpIdk&amp;t=658s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1wSNs8fpIdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=JV6ZUdw_lXQ&amp;t=7148s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JV6ZUdw_lXQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=2zp6o_3CRzU&amp;t=2699s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2zp6o_3CRzU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=EFEFEcYl9es&amp;t=2040s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EFEFEcYl9es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=gl486Y5GB0w&amp;t=130s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gl486Y5GB0w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bir dakika içinde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=YYCPETGxTuE&amp;t=795s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YYCPETGxTuE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=K1UKsLlNvUo&amp;t=133s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K1UKsLlNvUo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=O1pUs5EpWVQ&amp;t=783s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O1pUs5EpWVQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=UkA5tTr8JFQ&amp;t=4268s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UkA5tTr8JFQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=8WIjnu3QRus&amp;t=3692s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8WIjnu3QRus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=kx99oKm_K_U&amp;t=5289s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kx99oKm_K_U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=MfRXdjOznRQ&amp;t=387s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MfRXdjOznRQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ona ne oldu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=n4NhvxPxpuw&amp;t=831s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n4NhvxPxpuw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=vjPoFyTUt8Q&amp;t=98s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vjPoFyTUt8Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=FfW2yyxBHpg&amp;t=858s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FfW2yyxBHpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tamam devam et</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=Bbaal2Neohk&amp;t=5732s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bbaal2Neohk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=PwGdpbguE4w&amp;t=236s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PwGdpbguE4w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=xPgddk3AnRQ&amp;t=201s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xPgddk3AnRQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=xPgddk3AnRQ&amp;t=428s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=kulZ_sWzBR0&amp;t=2786s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kulZ_sWzBR0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gerçekten çok güzel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=_2oPQqf2x28&amp;t=510s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_2oPQqf2x28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=y5Tib_IRHk0&amp;t=462s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y5Tib_IRHk0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=WuJWc_b33FA&amp;t=2722s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WuJWc_b33FA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=r4o0Vg6NQNc&amp;t=3385s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r4o0Vg6NQNc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=O5raFzyCm70&amp;t=137s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O5raFzyCm70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=kqygC_F0bJk&amp;t=532s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kqygC_F0bJk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=l_G2uCqqWOA&amp;t=177s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l_G2uCqqWOA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bana izin ver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=OQqWR2Zii_8&amp;t=6180s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OQqWR2Zii_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=lNfbZbkcVVE&amp;t=2739s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lNfbZbkcVVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bize yardım et</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=udNdqhGlkSA&amp;t=624s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">udNdqhGlkSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=b88hhCCKu4E&amp;t=7456s</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=R02ljlzvh_A&amp;t=2499s</t>
   </si>
   <si>
@@ -1762,12 +1759,6 @@
     <t xml:space="preserve">C_IXiaaAow8</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=Am5xsXJ4uMs&amp;t=215s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Am5xsXJ4uMs</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=NEWpNB8q2cs&amp;t=499s</t>
   </si>
   <si>
@@ -1792,12 +1783,6 @@
     <t xml:space="preserve">vGUm_5F0zbI</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=Rm6zwwnAVeA&amp;t=2731s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rm6zwwnAVeA</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=CSBjx9ri7aI&amp;t=650s</t>
   </si>
   <si>
@@ -1981,24 +1966,12 @@
     <t xml:space="preserve">lsciLyjICMk</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=h_zydUpJF08&amp;t=600s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h_zydUpJF08</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=abGujUVqjiQ&amp;t=220s</t>
   </si>
   <si>
     <t xml:space="preserve">abGujUVqjiQ</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=iqc5P0IEYTY&amp;t=188s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iqc5P0IEYTY</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=z7IjzketUfY&amp;t=2964s</t>
   </si>
   <si>
@@ -2306,12 +2279,6 @@
   </si>
   <si>
     <t xml:space="preserve">J0CIPlClrbk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=WfWBcS5okFM&amp;t=327s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WfWBcS5okFM</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=RqQe0ewBrD0&amp;t=5280s</t>
@@ -2881,6 +2848,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2998,16 +2966,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E459"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F142" activeCellId="0" sqref="F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.69"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="30.75"/>
   </cols>
@@ -5632,30 +5600,30 @@
     </row>
     <row r="155" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="B155" s="3" t="n">
-        <v>4974</v>
+        <v>1773</v>
       </c>
       <c r="C155" s="3" t="n">
-        <v>4976</v>
+        <v>1775</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B156" s="3" t="n">
-        <v>1773</v>
+        <v>687</v>
       </c>
       <c r="C156" s="3" t="n">
-        <v>1775</v>
+        <v>689</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>341</v>
@@ -5666,13 +5634,13 @@
     </row>
     <row r="157" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B157" s="3" t="n">
-        <v>687</v>
+        <v>658</v>
       </c>
       <c r="C157" s="3" t="n">
-        <v>689</v>
+        <v>660</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>343</v>
@@ -5683,13 +5651,13 @@
     </row>
     <row r="158" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B158" s="3" t="n">
-        <v>658</v>
+        <v>7148</v>
       </c>
       <c r="C158" s="3" t="n">
-        <v>660</v>
+        <v>7150</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>345</v>
@@ -5700,13 +5668,13 @@
     </row>
     <row r="159" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B159" s="3" t="n">
-        <v>7148</v>
+        <v>2699</v>
       </c>
       <c r="C159" s="3" t="n">
-        <v>7150</v>
+        <v>2701</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>347</v>
@@ -5717,13 +5685,13 @@
     </row>
     <row r="160" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B160" s="3" t="n">
-        <v>2699</v>
+        <v>2040</v>
       </c>
       <c r="C160" s="3" t="n">
-        <v>2701</v>
+        <v>2042</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>349</v>
@@ -5734,13 +5702,13 @@
     </row>
     <row r="161" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B161" s="3" t="n">
-        <v>2040</v>
+        <v>130</v>
       </c>
       <c r="C161" s="3" t="n">
-        <v>2042</v>
+        <v>132</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>351</v>
@@ -5751,30 +5719,30 @@
     </row>
     <row r="162" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="B162" s="3" t="n">
-        <v>130</v>
+        <v>795</v>
       </c>
       <c r="C162" s="3" t="n">
-        <v>132</v>
+        <v>797</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B163" s="3" t="n">
-        <v>795</v>
+        <v>133</v>
       </c>
       <c r="C163" s="3" t="n">
-        <v>797</v>
+        <v>135</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>356</v>
@@ -5785,13 +5753,13 @@
     </row>
     <row r="164" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B164" s="3" t="n">
-        <v>133</v>
+        <v>783</v>
       </c>
       <c r="C164" s="3" t="n">
-        <v>135</v>
+        <v>785</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>358</v>
@@ -5802,13 +5770,13 @@
     </row>
     <row r="165" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B165" s="3" t="n">
-        <v>783</v>
+        <v>4268</v>
       </c>
       <c r="C165" s="3" t="n">
-        <v>785</v>
+        <v>4270</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>360</v>
@@ -5819,13 +5787,13 @@
     </row>
     <row r="166" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B166" s="3" t="n">
-        <v>4268</v>
+        <v>3692</v>
       </c>
       <c r="C166" s="3" t="n">
-        <v>4270</v>
+        <v>3695</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>362</v>
@@ -5836,13 +5804,13 @@
     </row>
     <row r="167" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B167" s="3" t="n">
-        <v>3692</v>
+        <v>5289</v>
       </c>
       <c r="C167" s="3" t="n">
-        <v>3695</v>
+        <v>5292</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>364</v>
@@ -5853,13 +5821,13 @@
     </row>
     <row r="168" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B168" s="3" t="n">
-        <v>5289</v>
+        <v>387</v>
       </c>
       <c r="C168" s="3" t="n">
-        <v>5292</v>
+        <v>389</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>366</v>
@@ -5870,30 +5838,30 @@
     </row>
     <row r="169" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="B169" s="3" t="n">
-        <v>387</v>
+        <v>831</v>
       </c>
       <c r="C169" s="3" t="n">
-        <v>389</v>
+        <v>833</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B170" s="3" t="n">
-        <v>831</v>
+        <v>98</v>
       </c>
       <c r="C170" s="3" t="n">
-        <v>833</v>
+        <v>100</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>371</v>
@@ -5904,13 +5872,13 @@
     </row>
     <row r="171" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B171" s="3" t="n">
-        <v>98</v>
+        <v>858</v>
       </c>
       <c r="C171" s="3" t="n">
-        <v>100</v>
+        <v>860</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>373</v>
@@ -5921,30 +5889,30 @@
     </row>
     <row r="172" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="3" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B172" s="3" t="n">
-        <v>858</v>
+        <v>5732</v>
       </c>
       <c r="C172" s="3" t="n">
-        <v>860</v>
+        <v>5734</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B173" s="3" t="n">
-        <v>5732</v>
+        <v>236</v>
       </c>
       <c r="C173" s="3" t="n">
-        <v>5734</v>
+        <v>238</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>378</v>
@@ -5955,13 +5923,13 @@
     </row>
     <row r="174" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B174" s="3" t="n">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="C174" s="3" t="n">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>380</v>
@@ -5972,64 +5940,64 @@
     </row>
     <row r="175" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B175" s="3" t="n">
-        <v>201</v>
+        <v>428</v>
       </c>
       <c r="C175" s="3" t="n">
-        <v>203</v>
+        <v>430</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>382</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B176" s="3" t="n">
-        <v>428</v>
+        <v>2786</v>
       </c>
       <c r="C176" s="3" t="n">
-        <v>430</v>
+        <v>2788</v>
       </c>
       <c r="D176" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E176" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B177" s="3" t="n">
-        <v>2786</v>
+        <v>510</v>
       </c>
       <c r="C177" s="3" t="n">
-        <v>2788</v>
+        <v>512</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B178" s="3" t="n">
-        <v>510</v>
+        <v>462</v>
       </c>
       <c r="C178" s="3" t="n">
-        <v>512</v>
+        <v>464</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>388</v>
@@ -6040,13 +6008,13 @@
     </row>
     <row r="179" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B179" s="3" t="n">
-        <v>462</v>
+        <v>2722</v>
       </c>
       <c r="C179" s="3" t="n">
-        <v>464</v>
+        <v>2725</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>390</v>
@@ -6057,13 +6025,13 @@
     </row>
     <row r="180" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B180" s="3" t="n">
-        <v>2722</v>
+        <v>3385</v>
       </c>
       <c r="C180" s="3" t="n">
-        <v>2725</v>
+        <v>3387</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>392</v>
@@ -6074,13 +6042,13 @@
     </row>
     <row r="181" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B181" s="3" t="n">
-        <v>3385</v>
+        <v>137</v>
       </c>
       <c r="C181" s="3" t="n">
-        <v>3387</v>
+        <v>139</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>394</v>
@@ -6091,13 +6059,13 @@
     </row>
     <row r="182" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B182" s="3" t="n">
-        <v>137</v>
+        <v>532</v>
       </c>
       <c r="C182" s="3" t="n">
-        <v>139</v>
+        <v>535</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>396</v>
@@ -6108,13 +6076,13 @@
     </row>
     <row r="183" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B183" s="3" t="n">
-        <v>532</v>
+        <v>177</v>
       </c>
       <c r="C183" s="3" t="n">
-        <v>535</v>
+        <v>180</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>398</v>
@@ -6125,30 +6093,30 @@
     </row>
     <row r="184" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="B184" s="3" t="n">
-        <v>177</v>
+        <v>6180</v>
       </c>
       <c r="C184" s="3" t="n">
-        <v>180</v>
+        <v>6182</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B185" s="3" t="n">
-        <v>6180</v>
+        <v>2739</v>
       </c>
       <c r="C185" s="3" t="n">
-        <v>6182</v>
+        <v>2741</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>403</v>
@@ -6159,30 +6127,30 @@
     </row>
     <row r="186" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B186" s="3" t="n">
-        <v>2739</v>
+        <v>624</v>
       </c>
       <c r="C186" s="3" t="n">
-        <v>2741</v>
+        <v>627</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B187" s="3" t="n">
-        <v>624</v>
+        <v>7456</v>
       </c>
       <c r="C187" s="3" t="n">
-        <v>627</v>
+        <v>7459</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>408</v>
@@ -6193,1815 +6161,1815 @@
     </row>
     <row r="188" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B188" s="3" t="n">
-        <v>7456</v>
+        <v>2499</v>
       </c>
       <c r="C188" s="3" t="n">
-        <v>7459</v>
+        <v>2502</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>410</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>339</v>
+        <v>411</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B189" s="3" t="n">
-        <v>2499</v>
+        <v>6633</v>
       </c>
       <c r="C189" s="3" t="n">
-        <v>2502</v>
+        <v>6635</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B190" s="3" t="n">
-        <v>6633</v>
+        <v>389</v>
       </c>
       <c r="C190" s="3" t="n">
-        <v>6635</v>
+        <v>392</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B191" s="3" t="n">
-        <v>389</v>
+        <v>1380</v>
       </c>
       <c r="C191" s="3" t="n">
-        <v>392</v>
+        <v>1384</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="B192" s="3" t="n">
-        <v>1380</v>
+        <v>5711</v>
       </c>
       <c r="C192" s="3" t="n">
-        <v>1384</v>
+        <v>5714</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B193" s="3" t="n">
-        <v>5711</v>
+        <v>1480</v>
       </c>
       <c r="C193" s="3" t="n">
-        <v>5714</v>
+        <v>1482</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B194" s="3" t="n">
-        <v>1480</v>
+        <v>7915</v>
       </c>
       <c r="C194" s="3" t="n">
-        <v>1482</v>
+        <v>7918</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>423</v>
+        <v>126</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B195" s="3" t="n">
-        <v>7915</v>
+        <v>7644</v>
       </c>
       <c r="C195" s="3" t="n">
-        <v>7918</v>
+        <v>7646</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>424</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B196" s="3" t="n">
-        <v>7644</v>
+        <v>244</v>
       </c>
       <c r="C196" s="3" t="n">
-        <v>7646</v>
+        <v>246</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>36</v>
+        <v>427</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B197" s="3" t="n">
-        <v>244</v>
+        <v>3559</v>
       </c>
       <c r="C197" s="3" t="n">
-        <v>246</v>
+        <v>3562</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B198" s="3" t="n">
-        <v>3559</v>
+        <v>5370</v>
       </c>
       <c r="C198" s="3" t="n">
-        <v>3562</v>
+        <v>5372</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B199" s="3" t="n">
-        <v>5370</v>
+        <v>1423</v>
       </c>
       <c r="C199" s="3" t="n">
-        <v>5372</v>
+        <v>1426</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B200" s="3" t="n">
-        <v>1423</v>
+        <v>1479</v>
       </c>
       <c r="C200" s="3" t="n">
-        <v>1426</v>
+        <v>1482</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>434</v>
+        <v>144</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B201" s="3" t="n">
-        <v>1479</v>
+        <v>4709</v>
       </c>
       <c r="C201" s="3" t="n">
-        <v>1482</v>
+        <v>4712</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>144</v>
+        <v>437</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B202" s="3" t="n">
-        <v>4709</v>
+        <v>706</v>
       </c>
       <c r="C202" s="3" t="n">
-        <v>4712</v>
+        <v>708</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B203" s="3" t="n">
-        <v>706</v>
+        <v>9451</v>
       </c>
       <c r="C203" s="3" t="n">
-        <v>708</v>
+        <v>9453</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>440</v>
+        <v>384</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B204" s="3" t="n">
-        <v>9451</v>
+        <v>4173</v>
       </c>
       <c r="C204" s="3" t="n">
-        <v>9453</v>
+        <v>4176</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>441</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B205" s="3" t="n">
-        <v>4173</v>
+        <v>5426</v>
       </c>
       <c r="C205" s="3" t="n">
-        <v>4176</v>
+        <v>5429</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B206" s="3" t="n">
-        <v>5426</v>
+        <v>3639</v>
       </c>
       <c r="C206" s="3" t="n">
-        <v>5429</v>
+        <v>3641</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B207" s="3" t="n">
-        <v>3639</v>
+        <v>839</v>
       </c>
       <c r="C207" s="3" t="n">
-        <v>3641</v>
+        <v>842</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="B208" s="3" t="n">
-        <v>839</v>
+        <v>2514</v>
       </c>
       <c r="C208" s="3" t="n">
-        <v>842</v>
+        <v>2516</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>449</v>
+        <v>193</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B209" s="3" t="n">
-        <v>2514</v>
+        <v>62</v>
       </c>
       <c r="C209" s="3" t="n">
-        <v>2516</v>
+        <v>65</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>451</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>193</v>
+        <v>452</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B210" s="3" t="n">
-        <v>62</v>
+        <v>6468</v>
       </c>
       <c r="C210" s="3" t="n">
-        <v>65</v>
+        <v>6470</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B211" s="3" t="n">
-        <v>6468</v>
+        <v>1395</v>
       </c>
       <c r="C211" s="3" t="n">
-        <v>6470</v>
+        <v>1398</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B212" s="3" t="n">
-        <v>1395</v>
+        <v>353</v>
       </c>
       <c r="C212" s="3" t="n">
-        <v>1398</v>
+        <v>356</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B213" s="3" t="n">
-        <v>353</v>
+        <v>1435</v>
       </c>
       <c r="C213" s="3" t="n">
-        <v>356</v>
+        <v>1437</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B214" s="3" t="n">
-        <v>1435</v>
+        <v>7343</v>
       </c>
       <c r="C214" s="3" t="n">
-        <v>1437</v>
+        <v>7346</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="3" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="B215" s="3" t="n">
-        <v>7343</v>
+        <v>390</v>
       </c>
       <c r="C215" s="3" t="n">
-        <v>7346</v>
+        <v>392</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B216" s="3" t="n">
-        <v>390</v>
+        <v>7342</v>
       </c>
       <c r="C216" s="3" t="n">
-        <v>392</v>
+        <v>7345</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>466</v>
+        <v>220</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B217" s="3" t="n">
-        <v>7342</v>
+        <v>279</v>
       </c>
       <c r="C217" s="3" t="n">
-        <v>7345</v>
+        <v>281</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>467</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>220</v>
+        <v>468</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B218" s="3" t="n">
-        <v>279</v>
+        <v>2592</v>
       </c>
       <c r="C218" s="3" t="n">
-        <v>281</v>
+        <v>2594</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B219" s="3" t="n">
-        <v>2592</v>
+        <v>3473</v>
       </c>
       <c r="C219" s="3" t="n">
-        <v>2594</v>
+        <v>3475</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>470</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>443</v>
+        <v>111</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="3" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="B220" s="3" t="n">
-        <v>3473</v>
+        <v>1738</v>
       </c>
       <c r="C220" s="3" t="n">
-        <v>3475</v>
+        <v>1740</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>111</v>
+        <v>473</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B221" s="3" t="n">
-        <v>1738</v>
+        <v>808</v>
       </c>
       <c r="C221" s="3" t="n">
-        <v>1740</v>
+        <v>811</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B222" s="3" t="n">
-        <v>808</v>
+        <v>196</v>
       </c>
       <c r="C222" s="3" t="n">
-        <v>811</v>
+        <v>199</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>476</v>
+        <v>324</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B223" s="3" t="n">
-        <v>196</v>
+        <v>975</v>
       </c>
       <c r="C223" s="3" t="n">
-        <v>199</v>
+        <v>978</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>477</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>324</v>
+        <v>478</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="3" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="B224" s="3" t="n">
-        <v>975</v>
+        <v>213</v>
       </c>
       <c r="C224" s="3" t="n">
-        <v>978</v>
+        <v>216</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B225" s="3" t="n">
-        <v>213</v>
+        <v>681</v>
       </c>
       <c r="C225" s="3" t="n">
-        <v>216</v>
+        <v>683</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B226" s="3" t="n">
-        <v>681</v>
+        <v>1929</v>
       </c>
       <c r="C226" s="3" t="n">
-        <v>683</v>
+        <v>1931</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="3" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B227" s="3" t="n">
-        <v>1929</v>
+        <v>32</v>
       </c>
       <c r="C227" s="3" t="n">
-        <v>1931</v>
+        <v>34</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B228" s="3" t="n">
-        <v>32</v>
+        <v>319</v>
       </c>
       <c r="C228" s="3" t="n">
-        <v>34</v>
+        <v>320</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="3" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B229" s="3" t="n">
-        <v>319</v>
+        <v>1744</v>
       </c>
       <c r="C229" s="3" t="n">
-        <v>320</v>
+        <v>1746</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B230" s="3" t="n">
-        <v>1744</v>
+        <v>178</v>
       </c>
       <c r="C230" s="3" t="n">
-        <v>1746</v>
+        <v>180</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B231" s="3" t="n">
-        <v>178</v>
+        <v>3773</v>
       </c>
       <c r="C231" s="3" t="n">
-        <v>180</v>
+        <v>3775</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B232" s="3" t="n">
-        <v>3773</v>
+        <v>602</v>
       </c>
       <c r="C232" s="3" t="n">
-        <v>3775</v>
+        <v>604</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>498</v>
+        <v>76</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B233" s="3" t="n">
-        <v>602</v>
+        <v>853</v>
       </c>
       <c r="C233" s="3" t="n">
-        <v>604</v>
+        <v>855</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>499</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>76</v>
+        <v>500</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="B234" s="3" t="n">
-        <v>853</v>
+        <v>2077</v>
       </c>
       <c r="C234" s="3" t="n">
-        <v>855</v>
+        <v>2079</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B235" s="3" t="n">
-        <v>2077</v>
+        <v>917</v>
       </c>
       <c r="C235" s="3" t="n">
-        <v>2079</v>
+        <v>920</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B236" s="3" t="n">
-        <v>917</v>
+        <v>2970</v>
       </c>
       <c r="C236" s="3" t="n">
-        <v>920</v>
+        <v>2972</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B237" s="3" t="n">
-        <v>2970</v>
+        <v>1947</v>
       </c>
       <c r="C237" s="3" t="n">
-        <v>2972</v>
+        <v>1949</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B238" s="3" t="n">
-        <v>1947</v>
+        <v>2925</v>
       </c>
       <c r="C238" s="3" t="n">
-        <v>1949</v>
+        <v>2928</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B239" s="3" t="n">
-        <v>2925</v>
+        <v>510</v>
       </c>
       <c r="C239" s="3" t="n">
-        <v>2928</v>
+        <v>512</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="3" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="B240" s="3" t="n">
-        <v>510</v>
+        <v>411</v>
       </c>
       <c r="C240" s="3" t="n">
-        <v>512</v>
+        <v>413</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B241" s="3" t="n">
-        <v>411</v>
+        <v>2075</v>
       </c>
       <c r="C241" s="3" t="n">
-        <v>413</v>
+        <v>2077</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B242" s="3" t="n">
-        <v>2075</v>
+        <v>6654</v>
       </c>
       <c r="C242" s="3" t="n">
-        <v>2077</v>
+        <v>6656</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>519</v>
+        <v>393</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B243" s="3" t="n">
-        <v>6654</v>
+        <v>2974</v>
       </c>
       <c r="C243" s="3" t="n">
-        <v>6656</v>
+        <v>2976</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>520</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>395</v>
+        <v>521</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B244" s="3" t="n">
-        <v>2974</v>
+        <v>342</v>
       </c>
       <c r="C244" s="3" t="n">
-        <v>2976</v>
+        <v>344</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="3" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="B245" s="3" t="n">
-        <v>342</v>
+        <v>1250</v>
       </c>
       <c r="C245" s="3" t="n">
-        <v>344</v>
+        <v>1252</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B246" s="3" t="n">
-        <v>1250</v>
+        <v>6465</v>
       </c>
       <c r="C246" s="3" t="n">
-        <v>1252</v>
+        <v>6467</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B247" s="3" t="n">
-        <v>6465</v>
+        <v>1335</v>
       </c>
       <c r="C247" s="3" t="n">
-        <v>6467</v>
+        <v>1337</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B248" s="3" t="n">
-        <v>1335</v>
+        <v>6564</v>
       </c>
       <c r="C248" s="3" t="n">
-        <v>1337</v>
+        <v>6566</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B249" s="3" t="n">
-        <v>6564</v>
+        <v>6156</v>
       </c>
       <c r="C249" s="3" t="n">
-        <v>6566</v>
+        <v>6158</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="B250" s="3" t="n">
-        <v>6156</v>
+        <v>351</v>
       </c>
       <c r="C250" s="3" t="n">
-        <v>6158</v>
+        <v>354</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B251" s="3" t="n">
-        <v>351</v>
+        <v>69</v>
       </c>
       <c r="C251" s="3" t="n">
-        <v>354</v>
+        <v>71</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B252" s="3" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C252" s="3" t="n">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B253" s="3" t="n">
-        <v>82</v>
+        <v>1201</v>
       </c>
       <c r="C253" s="3" t="n">
-        <v>84</v>
+        <v>1204</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B254" s="3" t="n">
-        <v>1201</v>
+        <v>742</v>
       </c>
       <c r="C254" s="3" t="n">
-        <v>1204</v>
+        <v>745</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B255" s="3" t="n">
-        <v>742</v>
+        <v>1023</v>
       </c>
       <c r="C255" s="3" t="n">
-        <v>745</v>
+        <v>1026</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="B256" s="3" t="n">
-        <v>1023</v>
+        <v>781</v>
       </c>
       <c r="C256" s="3" t="n">
-        <v>1026</v>
+        <v>783</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="3" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B257" s="3" t="n">
-        <v>781</v>
+        <v>5759</v>
       </c>
       <c r="C257" s="3" t="n">
-        <v>783</v>
+        <v>5761</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>551</v>
+        <v>260</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B258" s="3" t="n">
-        <v>5759</v>
+        <v>1036</v>
       </c>
       <c r="C258" s="3" t="n">
-        <v>5761</v>
+        <v>1039</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>260</v>
+        <v>555</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B259" s="3" t="n">
-        <v>1036</v>
+        <v>2226</v>
       </c>
       <c r="C259" s="3" t="n">
-        <v>1039</v>
+        <v>2230</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B260" s="3" t="n">
-        <v>2226</v>
+        <v>602</v>
       </c>
       <c r="C260" s="3" t="n">
-        <v>2230</v>
+        <v>606</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="3" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B261" s="3" t="n">
-        <v>602</v>
+        <v>6525</v>
       </c>
       <c r="C261" s="3" t="n">
-        <v>606</v>
+        <v>6527</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B262" s="3" t="n">
-        <v>6525</v>
+        <v>5879</v>
       </c>
       <c r="C262" s="3" t="n">
-        <v>6527</v>
+        <v>5881</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B263" s="3" t="n">
-        <v>5879</v>
+        <v>475</v>
       </c>
       <c r="C263" s="3" t="n">
-        <v>5881</v>
+        <v>478</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B264" s="3" t="n">
-        <v>475</v>
+        <v>1388</v>
       </c>
       <c r="C264" s="3" t="n">
-        <v>478</v>
+        <v>1391</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>566</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B265" s="3" t="n">
-        <v>1388</v>
+        <v>974</v>
       </c>
       <c r="C265" s="3" t="n">
-        <v>1391</v>
+        <v>976</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B266" s="3" t="n">
-        <v>974</v>
+        <v>7832</v>
       </c>
       <c r="C266" s="3" t="n">
-        <v>976</v>
+        <v>7834</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B267" s="3" t="n">
-        <v>7832</v>
+        <v>104</v>
       </c>
       <c r="C267" s="3" t="n">
-        <v>7834</v>
+        <v>106</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="3" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="B268" s="3" t="n">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C268" s="3" t="n">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B269" s="3" t="n">
-        <v>118</v>
+        <v>263</v>
       </c>
       <c r="C269" s="3" t="n">
-        <v>120</v>
+        <v>266</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B270" s="3" t="n">
-        <v>263</v>
+        <v>499</v>
       </c>
       <c r="C270" s="3" t="n">
-        <v>266</v>
+        <v>501</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B271" s="3" t="n">
-        <v>215</v>
+        <v>1433</v>
       </c>
       <c r="C271" s="3" t="n">
-        <v>217</v>
+        <v>1435</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B272" s="3" t="n">
-        <v>499</v>
+        <v>179</v>
       </c>
       <c r="C272" s="3" t="n">
-        <v>501</v>
+        <v>181</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B273" s="3" t="n">
-        <v>1433</v>
+        <v>790</v>
       </c>
       <c r="C273" s="3" t="n">
-        <v>1435</v>
+        <v>792</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B274" s="3" t="n">
-        <v>179</v>
+        <v>650</v>
       </c>
       <c r="C274" s="3" t="n">
-        <v>181</v>
+        <v>652</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="3" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="B275" s="3" t="n">
-        <v>790</v>
+        <v>1411</v>
       </c>
       <c r="C275" s="3" t="n">
-        <v>792</v>
+        <v>1414</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="3" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="B276" s="3" t="n">
-        <v>2731</v>
+        <v>3456</v>
       </c>
       <c r="C276" s="3" t="n">
-        <v>2733</v>
+        <v>3458</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="3" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="B277" s="3" t="n">
-        <v>650</v>
+        <v>1527</v>
       </c>
       <c r="C277" s="3" t="n">
-        <v>652</v>
+        <v>1529</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="3" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B278" s="3" t="n">
-        <v>1411</v>
+        <v>1018</v>
       </c>
       <c r="C278" s="3" t="n">
-        <v>1414</v>
+        <v>1020</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="3" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B279" s="3" t="n">
-        <v>3456</v>
+        <v>198</v>
       </c>
       <c r="C279" s="3" t="n">
-        <v>3458</v>
+        <v>200</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>598</v>
+        <v>539</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="3" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B280" s="3" t="n">
-        <v>1527</v>
+        <v>1811</v>
       </c>
       <c r="C280" s="3" t="n">
-        <v>1529</v>
+        <v>1813</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="3" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B281" s="3" t="n">
-        <v>1018</v>
+        <v>373</v>
       </c>
       <c r="C281" s="3" t="n">
-        <v>1020</v>
+        <v>375</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="3" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B282" s="3" t="n">
-        <v>198</v>
+        <v>3151</v>
       </c>
       <c r="C282" s="3" t="n">
-        <v>200</v>
+        <v>3153</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>540</v>
+        <v>605</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="3" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B283" s="3" t="n">
-        <v>1811</v>
+        <v>338</v>
       </c>
       <c r="C283" s="3" t="n">
-        <v>1813</v>
+        <v>340</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>605</v>
+        <v>29</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>606</v>
+        <v>30</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="3" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B284" s="3" t="n">
-        <v>373</v>
+        <v>4079</v>
       </c>
       <c r="C284" s="3" t="n">
-        <v>375</v>
+        <v>4081</v>
       </c>
       <c r="D284" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="E284" s="3" t="s">
         <v>607</v>
-      </c>
-      <c r="E284" s="3" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="3" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B285" s="3" t="n">
-        <v>3151</v>
+        <v>4319</v>
       </c>
       <c r="C285" s="3" t="n">
-        <v>3153</v>
+        <v>4321</v>
       </c>
       <c r="D285" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="E285" s="3" t="s">
         <v>609</v>
-      </c>
-      <c r="E285" s="3" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="3" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B286" s="3" t="n">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="C286" s="3" t="n">
-        <v>340</v>
+        <v>296</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>29</v>
+        <v>610</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>30</v>
+        <v>611</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="3" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="B287" s="3" t="n">
-        <v>4079</v>
+        <v>1390</v>
       </c>
       <c r="C287" s="3" t="n">
-        <v>4081</v>
+        <v>1392</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>612</v>
+        <v>511</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="3" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="B288" s="3" t="n">
-        <v>4319</v>
+        <v>682</v>
       </c>
       <c r="C288" s="3" t="n">
-        <v>4321</v>
+        <v>684</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="3" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="B289" s="3" t="n">
-        <v>294</v>
+        <v>5685</v>
       </c>
       <c r="C289" s="3" t="n">
-        <v>296</v>
+        <v>5687</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>616</v>
+        <v>126</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B290" s="3" t="n">
+        <v>4250</v>
+      </c>
+      <c r="C290" s="3" t="n">
+        <v>4252</v>
+      </c>
+      <c r="D290" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="B290" s="3" t="n">
-        <v>1390</v>
-      </c>
-      <c r="C290" s="3" t="n">
-        <v>1392</v>
-      </c>
-      <c r="D290" s="4" t="s">
+      <c r="E290" s="3" t="s">
         <v>618</v>
-      </c>
-      <c r="E290" s="3" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="3" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B291" s="3" t="n">
-        <v>682</v>
+        <v>231</v>
       </c>
       <c r="C291" s="3" t="n">
-        <v>684</v>
+        <v>234</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="3" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B292" s="3" t="n">
-        <v>5685</v>
+        <v>4655</v>
       </c>
       <c r="C292" s="3" t="n">
-        <v>5687</v>
+        <v>4657</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>126</v>
+        <v>485</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="3" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B293" s="3" t="n">
-        <v>4250</v>
+        <v>1336</v>
       </c>
       <c r="C293" s="3" t="n">
-        <v>4252</v>
+        <v>1337</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="3" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B294" s="3" t="n">
-        <v>231</v>
+        <v>5887</v>
       </c>
       <c r="C294" s="3" t="n">
-        <v>234</v>
+        <v>5890</v>
       </c>
       <c r="D294" s="4" t="s">
         <v>625</v>
@@ -8012,166 +7980,166 @@
     </row>
     <row r="295" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="3" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B295" s="3" t="n">
-        <v>4655</v>
+        <v>129</v>
       </c>
       <c r="C295" s="3" t="n">
-        <v>4657</v>
+        <v>131</v>
       </c>
       <c r="D295" s="4" t="s">
         <v>627</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="3" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B296" s="3" t="n">
-        <v>1336</v>
+        <v>1036</v>
       </c>
       <c r="C296" s="3" t="n">
-        <v>1337</v>
+        <v>1038</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>628</v>
+        <v>554</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>629</v>
+        <v>555</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="3" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B297" s="3" t="n">
-        <v>5887</v>
+        <v>8</v>
       </c>
       <c r="C297" s="3" t="n">
-        <v>5890</v>
+        <v>9</v>
       </c>
       <c r="D297" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="E297" s="3" t="s">
         <v>630</v>
-      </c>
-      <c r="E297" s="3" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="3" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B298" s="3" t="n">
-        <v>129</v>
+        <v>4216</v>
       </c>
       <c r="C298" s="3" t="n">
-        <v>131</v>
+        <v>4219</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>496</v>
+        <v>402</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B299" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="C299" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D299" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="B299" s="3" t="n">
-        <v>1036</v>
-      </c>
-      <c r="C299" s="3" t="n">
-        <v>1038</v>
-      </c>
-      <c r="D299" s="4" t="s">
-        <v>555</v>
-      </c>
       <c r="E299" s="3" t="s">
-        <v>556</v>
+        <v>634</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B300" s="3" t="n">
-        <v>8</v>
+        <v>941</v>
       </c>
       <c r="C300" s="3" t="n">
-        <v>9</v>
+        <v>943</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B301" s="3" t="n">
-        <v>4216</v>
+        <v>13</v>
       </c>
       <c r="C301" s="3" t="n">
-        <v>4219</v>
+        <v>15</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>404</v>
+        <v>638</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="3" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B302" s="3" t="n">
-        <v>68</v>
+        <v>6395</v>
       </c>
       <c r="C302" s="3" t="n">
-        <v>70</v>
+        <v>6397</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>639</v>
+        <v>301</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="3" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B303" s="3" t="n">
-        <v>941</v>
+        <v>4819</v>
       </c>
       <c r="C303" s="3" t="n">
-        <v>943</v>
+        <v>4821</v>
       </c>
       <c r="D303" s="4" t="s">
         <v>640</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>641</v>
+        <v>352</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="3" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B304" s="3" t="n">
-        <v>13</v>
+        <v>1867</v>
       </c>
       <c r="C304" s="3" t="n">
-        <v>15</v>
+        <v>1870</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>642</v>
@@ -8182,132 +8150,132 @@
     </row>
     <row r="305" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="3" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B305" s="3" t="n">
-        <v>6395</v>
+        <v>188</v>
       </c>
       <c r="C305" s="3" t="n">
-        <v>6397</v>
+        <v>190</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>644</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>301</v>
+        <v>645</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="3" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B306" s="3" t="n">
-        <v>4819</v>
+        <v>5739</v>
       </c>
       <c r="C306" s="3" t="n">
-        <v>4821</v>
+        <v>5741</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>354</v>
+        <v>647</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="3" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B307" s="3" t="n">
-        <v>1867</v>
+        <v>220</v>
       </c>
       <c r="C307" s="3" t="n">
-        <v>1870</v>
+        <v>222</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="3" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B308" s="3" t="n">
-        <v>188</v>
+        <v>2964</v>
       </c>
       <c r="C308" s="3" t="n">
-        <v>190</v>
+        <v>2966</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="3" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B309" s="3" t="n">
-        <v>5739</v>
+        <v>58</v>
       </c>
       <c r="C309" s="3" t="n">
-        <v>5741</v>
+        <v>61</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="3" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B310" s="3" t="n">
-        <v>600</v>
+        <v>8420</v>
       </c>
       <c r="C310" s="3" t="n">
-        <v>603</v>
+        <v>8422</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>654</v>
+        <v>160</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="3" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="B311" s="3" t="n">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="C311" s="3" t="n">
-        <v>222</v>
+        <v>58</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>656</v>
+        <v>142</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="3" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="B312" s="3" t="n">
-        <v>188</v>
+        <v>2420</v>
       </c>
       <c r="C312" s="3" t="n">
-        <v>190</v>
+        <v>2422</v>
       </c>
       <c r="D312" s="4" t="s">
         <v>657</v>
@@ -8318,13 +8286,13 @@
     </row>
     <row r="313" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="3" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="B313" s="3" t="n">
-        <v>2964</v>
+        <v>8098</v>
       </c>
       <c r="C313" s="3" t="n">
-        <v>2966</v>
+        <v>8100</v>
       </c>
       <c r="D313" s="4" t="s">
         <v>659</v>
@@ -8335,13 +8303,13 @@
     </row>
     <row r="314" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="3" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="B314" s="3" t="n">
-        <v>58</v>
+        <v>1532</v>
       </c>
       <c r="C314" s="3" t="n">
-        <v>61</v>
+        <v>1535</v>
       </c>
       <c r="D314" s="4" t="s">
         <v>661</v>
@@ -8352,251 +8320,251 @@
     </row>
     <row r="315" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="3" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="B315" s="3" t="n">
-        <v>8420</v>
+        <v>302</v>
       </c>
       <c r="C315" s="3" t="n">
-        <v>8422</v>
+        <v>304</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>663</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>160</v>
+        <v>664</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="3" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="B316" s="3" t="n">
-        <v>56</v>
+        <v>542</v>
       </c>
       <c r="C316" s="3" t="n">
-        <v>58</v>
+        <v>544</v>
       </c>
       <c r="D316" s="4" t="s">
         <v>665</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>142</v>
+        <v>666</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="3" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B317" s="3" t="n">
-        <v>2420</v>
+        <v>1294</v>
       </c>
       <c r="C317" s="3" t="n">
-        <v>2422</v>
+        <v>1296</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="3" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B318" s="3" t="n">
-        <v>8098</v>
+        <v>4899</v>
       </c>
       <c r="C318" s="3" t="n">
-        <v>8100</v>
+        <v>4902</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>669</v>
+        <v>442</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="3" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B319" s="3" t="n">
-        <v>1532</v>
+        <v>5929</v>
       </c>
       <c r="C319" s="3" t="n">
-        <v>1535</v>
+        <v>5931</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>671</v>
+        <v>126</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="3" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="B320" s="3" t="n">
-        <v>302</v>
+        <v>4616</v>
       </c>
       <c r="C320" s="3" t="n">
-        <v>304</v>
+        <v>4618</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="3" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="B321" s="3" t="n">
-        <v>542</v>
+        <v>213</v>
       </c>
       <c r="C321" s="3" t="n">
-        <v>544</v>
+        <v>215</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B322" s="3" t="n">
-        <v>1294</v>
+        <v>638</v>
       </c>
       <c r="C322" s="3" t="n">
-        <v>1296</v>
+        <v>639</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B323" s="3" t="n">
-        <v>4899</v>
+        <v>1751</v>
       </c>
       <c r="C323" s="3" t="n">
-        <v>4902</v>
+        <v>1753</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>443</v>
+        <v>681</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B324" s="3" t="n">
-        <v>5929</v>
+        <v>935</v>
       </c>
       <c r="C324" s="3" t="n">
-        <v>5931</v>
+        <v>937</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>126</v>
+        <v>683</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B325" s="3" t="n">
-        <v>4616</v>
+        <v>34</v>
       </c>
       <c r="C325" s="3" t="n">
-        <v>4618</v>
+        <v>36</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B326" s="3" t="n">
-        <v>213</v>
+        <v>6364</v>
       </c>
       <c r="C326" s="3" t="n">
-        <v>215</v>
+        <v>6366</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="3" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B327" s="3" t="n">
-        <v>638</v>
+        <v>214</v>
       </c>
       <c r="C327" s="3" t="n">
-        <v>639</v>
+        <v>216</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>688</v>
+        <v>34</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="3" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B328" s="3" t="n">
-        <v>1751</v>
+        <v>1935</v>
       </c>
       <c r="C328" s="3" t="n">
-        <v>1753</v>
+        <v>1937</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>690</v>
+        <v>439</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="3" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B329" s="3" t="n">
-        <v>935</v>
+        <v>4156</v>
       </c>
       <c r="C329" s="3" t="n">
-        <v>937</v>
+        <v>4158</v>
       </c>
       <c r="D329" s="4" t="s">
         <v>691</v>
@@ -8607,13 +8575,13 @@
     </row>
     <row r="330" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="3" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B330" s="3" t="n">
-        <v>34</v>
+        <v>2243</v>
       </c>
       <c r="C330" s="3" t="n">
-        <v>36</v>
+        <v>2245</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>693</v>
@@ -8624,268 +8592,268 @@
     </row>
     <row r="331" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="3" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="B331" s="3" t="n">
-        <v>6364</v>
+        <v>465</v>
       </c>
       <c r="C331" s="3" t="n">
-        <v>6366</v>
+        <v>467</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B332" s="3" t="n">
-        <v>214</v>
+        <v>640</v>
       </c>
       <c r="C332" s="3" t="n">
-        <v>216</v>
+        <v>642</v>
       </c>
       <c r="D332" s="4" t="s">
         <v>698</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>34</v>
+        <v>699</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B333" s="3" t="n">
-        <v>1935</v>
+        <v>6989</v>
       </c>
       <c r="C333" s="3" t="n">
-        <v>1937</v>
+        <v>6990</v>
       </c>
       <c r="D333" s="4" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E333" s="3" t="s">
-        <v>440</v>
+        <v>701</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B334" s="3" t="n">
-        <v>4156</v>
+        <v>4186</v>
       </c>
       <c r="C334" s="3" t="n">
-        <v>4158</v>
+        <v>4187</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>701</v>
+        <v>564</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B335" s="3" t="n">
-        <v>2243</v>
+        <v>2313</v>
       </c>
       <c r="C335" s="3" t="n">
-        <v>2245</v>
+        <v>2315</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B336" s="3" t="n">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="C336" s="3" t="n">
-        <v>467</v>
+        <v>499</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B337" s="3" t="n">
-        <v>640</v>
+        <v>1726</v>
       </c>
       <c r="C337" s="3" t="n">
-        <v>642</v>
+        <v>1728</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B338" s="3" t="n">
-        <v>6989</v>
+        <v>6246</v>
       </c>
       <c r="C338" s="3" t="n">
-        <v>6990</v>
+        <v>6248</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>710</v>
+        <v>244</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B339" s="3" t="n">
-        <v>4186</v>
+        <v>406</v>
       </c>
       <c r="C339" s="3" t="n">
-        <v>4187</v>
+        <v>408</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>711</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>565</v>
+        <v>712</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B340" s="3" t="n">
-        <v>2313</v>
+        <v>6184</v>
       </c>
       <c r="C340" s="3" t="n">
-        <v>2315</v>
+        <v>6186</v>
       </c>
       <c r="D340" s="4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>713</v>
+        <v>346</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="B341" s="3" t="n">
+        <v>229</v>
+      </c>
+      <c r="C341" s="3" t="n">
+        <v>231</v>
+      </c>
+      <c r="D341" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="B341" s="3" t="n">
-        <v>497</v>
-      </c>
-      <c r="C341" s="3" t="n">
-        <v>499</v>
-      </c>
-      <c r="D341" s="4" t="s">
+      <c r="E341" s="3" t="s">
         <v>715</v>
-      </c>
-      <c r="E341" s="3" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="3" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="B342" s="3" t="n">
-        <v>1726</v>
+        <v>8797</v>
       </c>
       <c r="C342" s="3" t="n">
-        <v>1728</v>
+        <v>8800</v>
       </c>
       <c r="D342" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E342" s="3" t="s">
-        <v>718</v>
+        <v>609</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="3" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B343" s="3" t="n">
-        <v>6246</v>
+        <v>1006</v>
       </c>
       <c r="C343" s="3" t="n">
-        <v>6248</v>
+        <v>1008</v>
       </c>
       <c r="D343" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="E343" s="3" t="s">
         <v>719</v>
-      </c>
-      <c r="E343" s="3" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="3" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B344" s="3" t="n">
-        <v>406</v>
+        <v>1800</v>
       </c>
       <c r="C344" s="3" t="n">
-        <v>408</v>
+        <v>1802</v>
       </c>
       <c r="D344" s="4" t="s">
         <v>720</v>
       </c>
       <c r="E344" s="3" t="s">
-        <v>721</v>
+        <v>490</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="3" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B345" s="3" t="n">
-        <v>6184</v>
+        <v>7170</v>
       </c>
       <c r="C345" s="3" t="n">
-        <v>6186</v>
+        <v>7173</v>
       </c>
       <c r="D345" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="E345" s="3" t="s">
         <v>722</v>
-      </c>
-      <c r="E345" s="3" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="3" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B346" s="3" t="n">
-        <v>229</v>
+        <v>303</v>
       </c>
       <c r="C346" s="3" t="n">
-        <v>231</v>
+        <v>304</v>
       </c>
       <c r="D346" s="4" t="s">
         <v>723</v>
@@ -8896,172 +8864,172 @@
     </row>
     <row r="347" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="3" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="B347" s="3" t="n">
-        <v>8797</v>
+        <v>305</v>
       </c>
       <c r="C347" s="3" t="n">
-        <v>8800</v>
+        <v>307</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>614</v>
+        <v>727</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B348" s="3" t="n">
-        <v>1006</v>
+        <v>1774</v>
       </c>
       <c r="C348" s="3" t="n">
-        <v>1008</v>
+        <v>1776</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E348" s="3" t="s">
-        <v>728</v>
+        <v>76</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B349" s="3" t="n">
-        <v>1800</v>
+        <v>5744</v>
       </c>
       <c r="C349" s="3" t="n">
-        <v>1802</v>
+        <v>5746</v>
       </c>
       <c r="D349" s="4" t="s">
         <v>729</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>491</v>
+        <v>730</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B350" s="3" t="n">
-        <v>7170</v>
+        <v>18</v>
       </c>
       <c r="C350" s="3" t="n">
-        <v>7173</v>
+        <v>20</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B351" s="3" t="n">
-        <v>303</v>
+        <v>939</v>
       </c>
       <c r="C351" s="3" t="n">
-        <v>304</v>
+        <v>942</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="3" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B352" s="3" t="n">
-        <v>305</v>
+        <v>7293</v>
       </c>
       <c r="C352" s="3" t="n">
-        <v>307</v>
+        <v>7295</v>
       </c>
       <c r="D352" s="4" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="3" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B353" s="3" t="n">
-        <v>1774</v>
+        <v>399</v>
       </c>
       <c r="C353" s="3" t="n">
-        <v>1776</v>
+        <v>401</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>76</v>
+        <v>739</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="3" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B354" s="3" t="n">
-        <v>5744</v>
+        <v>7089</v>
       </c>
       <c r="C354" s="3" t="n">
-        <v>5746</v>
+        <v>7091</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="3" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B355" s="3" t="n">
-        <v>18</v>
+        <v>8071</v>
       </c>
       <c r="C355" s="3" t="n">
-        <v>20</v>
+        <v>8073</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="3" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="B356" s="3" t="n">
-        <v>939</v>
+        <v>1635</v>
       </c>
       <c r="C356" s="3" t="n">
-        <v>942</v>
+        <v>1637</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9069,16 +9037,16 @@
         <v>744</v>
       </c>
       <c r="B357" s="3" t="n">
-        <v>7293</v>
+        <v>356</v>
       </c>
       <c r="C357" s="3" t="n">
-        <v>7295</v>
+        <v>358</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9086,16 +9054,16 @@
         <v>744</v>
       </c>
       <c r="B358" s="3" t="n">
-        <v>399</v>
+        <v>6389</v>
       </c>
       <c r="C358" s="3" t="n">
-        <v>401</v>
+        <v>6391</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9103,16 +9071,16 @@
         <v>744</v>
       </c>
       <c r="B359" s="3" t="n">
-        <v>7089</v>
+        <v>22</v>
       </c>
       <c r="C359" s="3" t="n">
-        <v>7091</v>
+        <v>23</v>
       </c>
       <c r="D359" s="4" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="E359" s="3" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9120,282 +9088,282 @@
         <v>744</v>
       </c>
       <c r="B360" s="3" t="n">
-        <v>8071</v>
+        <v>5280</v>
       </c>
       <c r="C360" s="3" t="n">
-        <v>8073</v>
+        <v>5282</v>
       </c>
       <c r="D360" s="4" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E360" s="3" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="3" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="B361" s="3" t="n">
-        <v>1635</v>
+        <v>2</v>
       </c>
       <c r="C361" s="3" t="n">
-        <v>1637</v>
+        <v>4</v>
       </c>
       <c r="D361" s="4" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E361" s="3" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="3" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="B362" s="3" t="n">
-        <v>356</v>
+        <v>32</v>
       </c>
       <c r="C362" s="3" t="n">
-        <v>358</v>
+        <v>34</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E362" s="3" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="3" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="B363" s="3" t="n">
-        <v>6389</v>
+        <v>335</v>
       </c>
       <c r="C363" s="3" t="n">
-        <v>6391</v>
+        <v>337</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E363" s="3" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="3" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="B364" s="3" t="n">
-        <v>22</v>
+        <v>712</v>
       </c>
       <c r="C364" s="3" t="n">
-        <v>23</v>
+        <v>714</v>
       </c>
       <c r="D364" s="4" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="E364" s="3" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="3" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="B365" s="3" t="n">
-        <v>327</v>
+        <v>122</v>
       </c>
       <c r="C365" s="3" t="n">
-        <v>329</v>
+        <v>124</v>
       </c>
       <c r="D365" s="4" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E365" s="3" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="3" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="B366" s="3" t="n">
-        <v>5280</v>
+        <v>87</v>
       </c>
       <c r="C366" s="3" t="n">
-        <v>5282</v>
+        <v>89</v>
       </c>
       <c r="D366" s="4" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="E366" s="3" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="3" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="B367" s="3" t="n">
-        <v>2</v>
+        <v>1449</v>
       </c>
       <c r="C367" s="3" t="n">
-        <v>4</v>
+        <v>1451</v>
       </c>
       <c r="D367" s="4" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="E367" s="3" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="3" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="B368" s="3" t="n">
-        <v>32</v>
+        <v>1023</v>
       </c>
       <c r="C368" s="3" t="n">
-        <v>34</v>
+        <v>1026</v>
       </c>
       <c r="D368" s="4" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="E368" s="3" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="3" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B369" s="3" t="n">
-        <v>335</v>
+        <v>5204</v>
       </c>
       <c r="C369" s="3" t="n">
-        <v>337</v>
+        <v>5206</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E369" s="3" t="s">
-        <v>772</v>
+        <v>750</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="3" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B370" s="3" t="n">
-        <v>712</v>
+        <v>233</v>
       </c>
       <c r="C370" s="3" t="n">
-        <v>714</v>
+        <v>235</v>
       </c>
       <c r="D370" s="4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E370" s="3" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="3" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B371" s="3" t="n">
-        <v>122</v>
+        <v>1120</v>
       </c>
       <c r="C371" s="3" t="n">
-        <v>124</v>
+        <v>1122</v>
       </c>
       <c r="D371" s="4" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E371" s="3" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="3" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B372" s="3" t="n">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="C372" s="3" t="n">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="D372" s="4" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E372" s="3" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="3" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B373" s="3" t="n">
-        <v>1449</v>
+        <v>126</v>
       </c>
       <c r="C373" s="3" t="n">
-        <v>1451</v>
+        <v>128</v>
       </c>
       <c r="D373" s="4" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E373" s="3" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="3" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="B374" s="3" t="n">
-        <v>1023</v>
+        <v>4309</v>
       </c>
       <c r="C374" s="3" t="n">
-        <v>1026</v>
+        <v>4311</v>
       </c>
       <c r="D374" s="4" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E374" s="3" t="s">
-        <v>782</v>
+        <v>624</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B375" s="3" t="n">
-        <v>5204</v>
+        <v>4368</v>
       </c>
       <c r="C375" s="3" t="n">
-        <v>5206</v>
+        <v>4369</v>
       </c>
       <c r="D375" s="4" t="s">
         <v>784</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B376" s="3" t="n">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="C376" s="3" t="n">
-        <v>235</v>
+        <v>103</v>
       </c>
       <c r="D376" s="4" t="s">
         <v>785</v>
@@ -9406,13 +9374,13 @@
     </row>
     <row r="377" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B377" s="3" t="n">
-        <v>1120</v>
+        <v>52</v>
       </c>
       <c r="C377" s="3" t="n">
-        <v>1122</v>
+        <v>53</v>
       </c>
       <c r="D377" s="4" t="s">
         <v>787</v>
@@ -9423,13 +9391,13 @@
     </row>
     <row r="378" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B378" s="3" t="n">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="C378" s="3" t="n">
-        <v>170</v>
+        <v>261</v>
       </c>
       <c r="D378" s="4" t="s">
         <v>789</v>
@@ -9440,64 +9408,64 @@
     </row>
     <row r="379" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="3" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="B379" s="3" t="n">
-        <v>126</v>
+        <v>2268</v>
       </c>
       <c r="C379" s="3" t="n">
-        <v>128</v>
+        <v>2271</v>
       </c>
       <c r="D379" s="4" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E379" s="3" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B380" s="3" t="n">
-        <v>4309</v>
+        <v>3776</v>
       </c>
       <c r="C380" s="3" t="n">
-        <v>4311</v>
+        <v>3777</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>794</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>629</v>
+        <v>30</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B381" s="3" t="n">
-        <v>4368</v>
+        <v>2991</v>
       </c>
       <c r="C381" s="3" t="n">
-        <v>4369</v>
+        <v>2992</v>
       </c>
       <c r="D381" s="4" t="s">
         <v>795</v>
       </c>
       <c r="E381" s="3" t="s">
-        <v>746</v>
+        <v>564</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B382" s="3" t="n">
-        <v>101</v>
+        <v>5541</v>
       </c>
       <c r="C382" s="3" t="n">
-        <v>103</v>
+        <v>5543</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>796</v>
@@ -9508,13 +9476,13 @@
     </row>
     <row r="383" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B383" s="3" t="n">
-        <v>52</v>
+        <v>4970</v>
       </c>
       <c r="C383" s="3" t="n">
-        <v>53</v>
+        <v>4972</v>
       </c>
       <c r="D383" s="4" t="s">
         <v>798</v>
@@ -9525,98 +9493,98 @@
     </row>
     <row r="384" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="3" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="B384" s="3" t="n">
-        <v>259</v>
+        <v>673</v>
       </c>
       <c r="C384" s="3" t="n">
-        <v>261</v>
+        <v>675</v>
       </c>
       <c r="D384" s="4" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E384" s="3" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B385" s="3" t="n">
-        <v>2268</v>
+        <v>1415</v>
       </c>
       <c r="C385" s="3" t="n">
-        <v>2271</v>
+        <v>1416</v>
       </c>
       <c r="D385" s="4" t="s">
         <v>803</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>804</v>
+        <v>618</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B386" s="3" t="n">
-        <v>3776</v>
+        <v>5098</v>
       </c>
       <c r="C386" s="3" t="n">
-        <v>3777</v>
+        <v>5100</v>
       </c>
       <c r="D386" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="E386" s="3" t="s">
         <v>805</v>
-      </c>
-      <c r="E386" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B387" s="3" t="n">
-        <v>2991</v>
+        <v>1773</v>
       </c>
       <c r="C387" s="3" t="n">
-        <v>2992</v>
+        <v>1775</v>
       </c>
       <c r="D387" s="4" t="s">
-        <v>806</v>
+        <v>339</v>
       </c>
       <c r="E387" s="3" t="s">
-        <v>565</v>
+        <v>340</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B388" s="3" t="n">
-        <v>5541</v>
+        <v>603</v>
       </c>
       <c r="C388" s="3" t="n">
-        <v>5543</v>
+        <v>605</v>
       </c>
       <c r="D388" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="E388" s="3" t="s">
         <v>807</v>
-      </c>
-      <c r="E388" s="3" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="3" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="B389" s="3" t="n">
-        <v>4970</v>
+        <v>7353</v>
       </c>
       <c r="C389" s="3" t="n">
-        <v>4972</v>
+        <v>7355</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>809</v>
@@ -9627,98 +9595,98 @@
     </row>
     <row r="390" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="B390" s="3" t="n">
+        <v>3172</v>
+      </c>
+      <c r="C390" s="3" t="n">
+        <v>3174</v>
+      </c>
+      <c r="D390" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="B390" s="3" t="n">
-        <v>673</v>
-      </c>
-      <c r="C390" s="3" t="n">
-        <v>675</v>
-      </c>
-      <c r="D390" s="4" t="s">
-        <v>812</v>
-      </c>
       <c r="E390" s="3" t="s">
-        <v>813</v>
+        <v>160</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="3" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B391" s="3" t="n">
-        <v>1415</v>
+        <v>3411</v>
       </c>
       <c r="C391" s="3" t="n">
-        <v>1416</v>
+        <v>3413</v>
       </c>
       <c r="D391" s="4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E391" s="3" t="s">
-        <v>623</v>
+        <v>813</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="3" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B392" s="3" t="n">
-        <v>5098</v>
+        <v>5911</v>
       </c>
       <c r="C392" s="3" t="n">
-        <v>5100</v>
+        <v>5913</v>
       </c>
       <c r="D392" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="E392" s="3" t="s">
         <v>815</v>
-      </c>
-      <c r="E392" s="3" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="3" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="B393" s="3" t="n">
-        <v>1773</v>
+        <v>1226</v>
       </c>
       <c r="C393" s="3" t="n">
-        <v>1775</v>
+        <v>1228</v>
       </c>
       <c r="D393" s="4" t="s">
-        <v>341</v>
+        <v>817</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>342</v>
+        <v>818</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="3" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="B394" s="3" t="n">
-        <v>603</v>
+        <v>5837</v>
       </c>
       <c r="C394" s="3" t="n">
-        <v>605</v>
+        <v>5839</v>
       </c>
       <c r="D394" s="4" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="E394" s="3" t="s">
-        <v>818</v>
+        <v>76</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="3" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B395" s="3" t="n">
-        <v>7353</v>
+        <v>119</v>
       </c>
       <c r="C395" s="3" t="n">
-        <v>7355</v>
+        <v>121</v>
       </c>
       <c r="D395" s="4" t="s">
         <v>820</v>
@@ -9729,98 +9697,98 @@
     </row>
     <row r="396" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="3" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B396" s="3" t="n">
-        <v>3172</v>
+        <v>2328</v>
       </c>
       <c r="C396" s="3" t="n">
-        <v>3174</v>
+        <v>2330</v>
       </c>
       <c r="D396" s="4" t="s">
         <v>822</v>
       </c>
       <c r="E396" s="3" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="3" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="B397" s="3" t="n">
-        <v>3411</v>
+        <v>4437</v>
       </c>
       <c r="C397" s="3" t="n">
-        <v>3413</v>
+        <v>4439</v>
       </c>
       <c r="D397" s="4" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E397" s="3" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="3" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="B398" s="3" t="n">
-        <v>5911</v>
+        <v>7158</v>
       </c>
       <c r="C398" s="3" t="n">
-        <v>5913</v>
+        <v>7159</v>
       </c>
       <c r="D398" s="4" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E398" s="3" t="s">
-        <v>826</v>
+        <v>730</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="B399" s="3" t="n">
+        <v>322</v>
+      </c>
+      <c r="C399" s="3" t="n">
+        <v>324</v>
+      </c>
+      <c r="D399" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="B399" s="3" t="n">
-        <v>1226</v>
-      </c>
-      <c r="C399" s="3" t="n">
-        <v>1228</v>
-      </c>
-      <c r="D399" s="4" t="s">
+      <c r="E399" s="3" t="s">
         <v>828</v>
-      </c>
-      <c r="E399" s="3" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B400" s="3" t="n">
-        <v>5837</v>
+        <v>2379</v>
       </c>
       <c r="C400" s="3" t="n">
-        <v>5839</v>
+        <v>2380</v>
       </c>
       <c r="D400" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="E400" s="3" t="s">
         <v>830</v>
-      </c>
-      <c r="E400" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B401" s="3" t="n">
-        <v>119</v>
+        <v>4835</v>
       </c>
       <c r="C401" s="3" t="n">
-        <v>121</v>
+        <v>4837</v>
       </c>
       <c r="D401" s="4" t="s">
         <v>831</v>
@@ -9831,30 +9799,30 @@
     </row>
     <row r="402" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B402" s="3" t="n">
-        <v>2328</v>
+        <v>16</v>
       </c>
       <c r="C402" s="3" t="n">
-        <v>2330</v>
+        <v>18</v>
       </c>
       <c r="D402" s="4" t="s">
         <v>833</v>
       </c>
       <c r="E402" s="3" t="s">
-        <v>17</v>
+        <v>834</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="3" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="B403" s="3" t="n">
-        <v>4437</v>
+        <v>182</v>
       </c>
       <c r="C403" s="3" t="n">
-        <v>4439</v>
+        <v>184</v>
       </c>
       <c r="D403" s="4" t="s">
         <v>835</v>
@@ -9865,404 +9833,404 @@
     </row>
     <row r="404" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="3" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B404" s="3" t="n">
-        <v>7158</v>
+        <v>286</v>
       </c>
       <c r="C404" s="3" t="n">
-        <v>7159</v>
+        <v>288</v>
       </c>
       <c r="D404" s="4" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E404" s="3" t="s">
-        <v>739</v>
+        <v>839</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="3" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B405" s="3" t="n">
-        <v>322</v>
+        <v>6269</v>
       </c>
       <c r="C405" s="3" t="n">
-        <v>324</v>
+        <v>6271</v>
       </c>
       <c r="D405" s="4" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="3" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B406" s="3" t="n">
-        <v>2379</v>
+        <v>1228</v>
       </c>
       <c r="C406" s="3" t="n">
-        <v>2380</v>
+        <v>1230</v>
       </c>
       <c r="D406" s="4" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="E406" s="3" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="3" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B407" s="3" t="n">
-        <v>4835</v>
+        <v>131</v>
       </c>
       <c r="C407" s="3" t="n">
-        <v>4837</v>
+        <v>133</v>
       </c>
       <c r="D407" s="4" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="E407" s="3" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="3" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B408" s="3" t="n">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="C408" s="3" t="n">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="D408" s="4" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="E408" s="3" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="3" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B409" s="3" t="n">
-        <v>182</v>
+        <v>2836</v>
       </c>
       <c r="C409" s="3" t="n">
-        <v>184</v>
+        <v>2838</v>
       </c>
       <c r="D409" s="4" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="E409" s="3" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="3" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="B410" s="3" t="n">
-        <v>286</v>
+        <v>5735</v>
       </c>
       <c r="C410" s="3" t="n">
-        <v>288</v>
+        <v>5737</v>
       </c>
       <c r="D410" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E410" s="3" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="3" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B411" s="3" t="n">
-        <v>6269</v>
+        <v>970</v>
       </c>
       <c r="C411" s="3" t="n">
-        <v>6271</v>
+        <v>972</v>
       </c>
       <c r="D411" s="4" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="E411" s="3" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="3" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B412" s="3" t="n">
-        <v>1228</v>
+        <v>6585</v>
       </c>
       <c r="C412" s="3" t="n">
-        <v>1230</v>
+        <v>6586</v>
       </c>
       <c r="D412" s="4" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="3" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B413" s="3" t="n">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="C413" s="3" t="n">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="D413" s="4" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="E413" s="3" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="3" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B414" s="3" t="n">
-        <v>240</v>
+        <v>1182</v>
       </c>
       <c r="C414" s="3" t="n">
-        <v>242</v>
+        <v>1184</v>
       </c>
       <c r="D414" s="4" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="E414" s="3" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="3" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B415" s="3" t="n">
-        <v>2836</v>
+        <v>157</v>
       </c>
       <c r="C415" s="3" t="n">
-        <v>2838</v>
+        <v>159</v>
       </c>
       <c r="D415" s="4" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="E415" s="3" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="3" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B416" s="3" t="n">
-        <v>5735</v>
+        <v>330</v>
       </c>
       <c r="C416" s="3" t="n">
-        <v>5737</v>
+        <v>331</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="E416" s="3" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="3" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B417" s="3" t="n">
-        <v>970</v>
+        <v>7348</v>
       </c>
       <c r="C417" s="3" t="n">
-        <v>972</v>
+        <v>7350</v>
       </c>
       <c r="D417" s="4" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="E417" s="3" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="3" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B418" s="3" t="n">
-        <v>6585</v>
+        <v>1406</v>
       </c>
       <c r="C418" s="3" t="n">
-        <v>6586</v>
+        <v>1410</v>
       </c>
       <c r="D418" s="4" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="E418" s="3" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="3" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B419" s="3" t="n">
-        <v>33</v>
+        <v>3016</v>
       </c>
       <c r="C419" s="3" t="n">
-        <v>34</v>
+        <v>3018</v>
       </c>
       <c r="D419" s="4" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="E419" s="3" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="3" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B420" s="3" t="n">
-        <v>1182</v>
+        <v>6793</v>
       </c>
       <c r="C420" s="3" t="n">
-        <v>1184</v>
+        <v>6795</v>
       </c>
       <c r="D420" s="4" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="E420" s="3" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="3" t="s">
-        <v>863</v>
+        <v>874</v>
       </c>
       <c r="B421" s="3" t="n">
-        <v>157</v>
+        <v>1862</v>
       </c>
       <c r="C421" s="3" t="n">
-        <v>159</v>
+        <v>1864</v>
       </c>
       <c r="D421" s="4" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="E421" s="3" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="3" t="s">
-        <v>863</v>
+        <v>874</v>
       </c>
       <c r="B422" s="3" t="n">
-        <v>330</v>
+        <v>6615</v>
       </c>
       <c r="C422" s="3" t="n">
-        <v>331</v>
+        <v>6617</v>
       </c>
       <c r="D422" s="4" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="E422" s="3" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="3" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B423" s="3" t="n">
-        <v>7348</v>
+        <v>353</v>
       </c>
       <c r="C423" s="3" t="n">
-        <v>7350</v>
+        <v>355</v>
       </c>
       <c r="D423" s="4" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="E423" s="3" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="3" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B424" s="3" t="n">
-        <v>1406</v>
+        <v>4785</v>
       </c>
       <c r="C424" s="3" t="n">
-        <v>1410</v>
+        <v>4787</v>
       </c>
       <c r="D424" s="4" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="E424" s="3" t="s">
-        <v>880</v>
+        <v>350</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="3" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="B425" s="3" t="n">
-        <v>3016</v>
+        <v>8039</v>
       </c>
       <c r="C425" s="3" t="n">
-        <v>3018</v>
+        <v>8041</v>
       </c>
       <c r="D425" s="4" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E425" s="3" t="s">
-        <v>882</v>
+        <v>683</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="3" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="B426" s="3" t="n">
-        <v>6793</v>
+        <v>7633</v>
       </c>
       <c r="C426" s="3" t="n">
-        <v>6795</v>
+        <v>7635</v>
       </c>
       <c r="D426" s="4" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E426" s="3" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="3" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B427" s="3" t="n">
-        <v>1862</v>
+        <v>558</v>
       </c>
       <c r="C427" s="3" t="n">
-        <v>1864</v>
+        <v>560</v>
       </c>
       <c r="D427" s="4" t="s">
         <v>886</v>
@@ -10273,13 +10241,13 @@
     </row>
     <row r="428" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="3" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B428" s="3" t="n">
-        <v>6615</v>
+        <v>4717</v>
       </c>
       <c r="C428" s="3" t="n">
-        <v>6617</v>
+        <v>4719</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>888</v>
@@ -10290,13 +10258,13 @@
     </row>
     <row r="429" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="3" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B429" s="3" t="n">
-        <v>353</v>
+        <v>1851</v>
       </c>
       <c r="C429" s="3" t="n">
-        <v>355</v>
+        <v>1853</v>
       </c>
       <c r="D429" s="4" t="s">
         <v>890</v>
@@ -10307,104 +10275,104 @@
     </row>
     <row r="430" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="3" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="B430" s="3" t="n">
-        <v>4785</v>
+        <v>369</v>
       </c>
       <c r="C430" s="3" t="n">
-        <v>4787</v>
+        <v>371</v>
       </c>
       <c r="D430" s="4" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E430" s="3" t="s">
-        <v>352</v>
+        <v>894</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B431" s="3" t="n">
-        <v>8039</v>
+        <v>1637</v>
       </c>
       <c r="C431" s="3" t="n">
-        <v>8041</v>
+        <v>1639</v>
       </c>
       <c r="D431" s="4" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E431" s="3" t="s">
-        <v>692</v>
+        <v>896</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B432" s="3" t="n">
-        <v>7633</v>
+        <v>477</v>
       </c>
       <c r="C432" s="3" t="n">
-        <v>7635</v>
+        <v>478</v>
       </c>
       <c r="D432" s="4" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="E432" s="3" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B433" s="3" t="n">
-        <v>558</v>
+        <v>19729</v>
       </c>
       <c r="C433" s="3" t="n">
-        <v>560</v>
+        <v>19731</v>
       </c>
       <c r="D433" s="4" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="E433" s="3" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B434" s="3" t="n">
-        <v>4717</v>
+        <v>174</v>
       </c>
       <c r="C434" s="3" t="n">
-        <v>4719</v>
+        <v>176</v>
       </c>
       <c r="D434" s="4" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="E434" s="3" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="3" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="B435" s="3" t="n">
-        <v>1851</v>
+        <v>2729</v>
       </c>
       <c r="C435" s="3" t="n">
-        <v>1853</v>
+        <v>2731</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="E435" s="3" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10412,180 +10380,180 @@
         <v>903</v>
       </c>
       <c r="B436" s="3" t="n">
-        <v>369</v>
+        <v>749</v>
       </c>
       <c r="C436" s="3" t="n">
-        <v>371</v>
+        <v>751</v>
       </c>
       <c r="D436" s="4" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="E436" s="3" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="3" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="B437" s="3" t="n">
-        <v>1637</v>
+        <v>1413</v>
       </c>
       <c r="C437" s="3" t="n">
-        <v>1639</v>
+        <v>1415</v>
       </c>
       <c r="D437" s="4" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="E437" s="3" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="3" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="B438" s="3" t="n">
-        <v>477</v>
+        <v>660</v>
       </c>
       <c r="C438" s="3" t="n">
-        <v>478</v>
+        <v>662</v>
       </c>
       <c r="D438" s="4" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="E438" s="3" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="3" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="B439" s="3" t="n">
-        <v>19729</v>
+        <v>8100</v>
       </c>
       <c r="C439" s="3" t="n">
-        <v>19731</v>
+        <v>8102</v>
       </c>
       <c r="D439" s="4" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="E439" s="3" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="3" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="B440" s="3" t="n">
-        <v>174</v>
+        <v>415</v>
       </c>
       <c r="C440" s="3" t="n">
-        <v>176</v>
+        <v>417</v>
       </c>
       <c r="D440" s="4" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="E440" s="3" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="3" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="B441" s="3" t="n">
-        <v>2729</v>
+        <v>2026</v>
       </c>
       <c r="C441" s="3" t="n">
-        <v>2731</v>
+        <v>2028</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="E441" s="3" t="s">
-        <v>916</v>
+        <v>454</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="3" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="B442" s="3" t="n">
-        <v>749</v>
+        <v>4015</v>
       </c>
       <c r="C442" s="3" t="n">
-        <v>751</v>
+        <v>4017</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E442" s="3" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="3" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B443" s="3" t="n">
-        <v>1413</v>
+        <v>497</v>
       </c>
       <c r="C443" s="3" t="n">
-        <v>1415</v>
+        <v>499</v>
       </c>
       <c r="D443" s="4" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E443" s="3" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="3" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B444" s="3" t="n">
-        <v>660</v>
+        <v>551</v>
       </c>
       <c r="C444" s="3" t="n">
-        <v>662</v>
+        <v>553</v>
       </c>
       <c r="D444" s="4" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E444" s="3" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="3" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B445" s="3" t="n">
-        <v>8100</v>
+        <v>2882</v>
       </c>
       <c r="C445" s="3" t="n">
-        <v>8102</v>
+        <v>2884</v>
       </c>
       <c r="D445" s="4" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E445" s="3" t="s">
-        <v>925</v>
+        <v>609</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="3" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B446" s="3" t="n">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="C446" s="3" t="n">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="D446" s="4" t="s">
         <v>926</v>
@@ -10599,16 +10567,16 @@
         <v>928</v>
       </c>
       <c r="B447" s="3" t="n">
-        <v>2026</v>
+        <v>5691</v>
       </c>
       <c r="C447" s="3" t="n">
-        <v>2028</v>
+        <v>5692</v>
       </c>
       <c r="D447" s="4" t="s">
         <v>929</v>
       </c>
       <c r="E447" s="3" t="s">
-        <v>455</v>
+        <v>624</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10616,10 +10584,10 @@
         <v>928</v>
       </c>
       <c r="B448" s="3" t="n">
-        <v>4015</v>
+        <v>535</v>
       </c>
       <c r="C448" s="3" t="n">
-        <v>4017</v>
+        <v>537</v>
       </c>
       <c r="D448" s="4" t="s">
         <v>930</v>
@@ -10633,16 +10601,16 @@
         <v>928</v>
       </c>
       <c r="B449" s="3" t="n">
-        <v>497</v>
+        <v>5776</v>
       </c>
       <c r="C449" s="3" t="n">
-        <v>499</v>
+        <v>5778</v>
       </c>
       <c r="D449" s="4" t="s">
         <v>932</v>
       </c>
       <c r="E449" s="3" t="s">
-        <v>933</v>
+        <v>49</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10650,16 +10618,16 @@
         <v>928</v>
       </c>
       <c r="B450" s="3" t="n">
-        <v>551</v>
+        <v>2315</v>
       </c>
       <c r="C450" s="3" t="n">
-        <v>553</v>
+        <v>2317</v>
       </c>
       <c r="D450" s="4" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E450" s="3" t="s">
-        <v>935</v>
+        <v>49</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10667,16 +10635,16 @@
         <v>928</v>
       </c>
       <c r="B451" s="3" t="n">
-        <v>2882</v>
+        <v>209</v>
       </c>
       <c r="C451" s="3" t="n">
-        <v>2884</v>
+        <v>212</v>
       </c>
       <c r="D451" s="4" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E451" s="3" t="s">
-        <v>614</v>
+        <v>935</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10684,137 +10652,41 @@
         <v>928</v>
       </c>
       <c r="B452" s="3" t="n">
-        <v>315</v>
+        <v>558</v>
       </c>
       <c r="C452" s="3" t="n">
-        <v>317</v>
+        <v>559</v>
       </c>
       <c r="D452" s="4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E452" s="3" t="s">
-        <v>938</v>
+        <v>313</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="3" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="B453" s="3" t="n">
-        <v>5691</v>
+        <v>3467</v>
       </c>
       <c r="C453" s="3" t="n">
-        <v>5692</v>
+        <v>3468</v>
       </c>
       <c r="D453" s="4" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="E453" s="3" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="454" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="B454" s="3" t="n">
-        <v>535</v>
-      </c>
-      <c r="C454" s="3" t="n">
-        <v>537</v>
-      </c>
-      <c r="D454" s="4" t="s">
-        <v>941</v>
-      </c>
-      <c r="E454" s="3" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="455" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="B455" s="3" t="n">
-        <v>5776</v>
-      </c>
-      <c r="C455" s="3" t="n">
-        <v>5778</v>
-      </c>
-      <c r="D455" s="4" t="s">
-        <v>943</v>
-      </c>
-      <c r="E455" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="456" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="B456" s="3" t="n">
-        <v>2315</v>
-      </c>
-      <c r="C456" s="3" t="n">
-        <v>2317</v>
-      </c>
-      <c r="D456" s="4" t="s">
-        <v>944</v>
-      </c>
-      <c r="E456" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="457" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="B457" s="3" t="n">
-        <v>209</v>
-      </c>
-      <c r="C457" s="3" t="n">
-        <v>212</v>
-      </c>
-      <c r="D457" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="E457" s="3" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="458" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="B458" s="3" t="n">
-        <v>558</v>
-      </c>
-      <c r="C458" s="3" t="n">
-        <v>559</v>
-      </c>
-      <c r="D458" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="E458" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="459" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="B459" s="3" t="n">
-        <v>3467</v>
-      </c>
-      <c r="C459" s="3" t="n">
-        <v>3468</v>
-      </c>
-      <c r="D459" s="4" t="s">
-        <v>948</v>
-      </c>
-      <c r="E459" s="3" t="s">
-        <v>614</v>
-      </c>
-    </row>
+        <v>609</v>
+      </c>
+    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://www.youtube.com/watch?v=liz1ODAVzyk&amp;t=6543s"/>
@@ -10970,311 +10842,305 @@
     <hyperlink ref="D152" r:id="rId151" display="https://www.youtube.com/watch?v=xcQkHqSe6FY&amp;t=784s"/>
     <hyperlink ref="D153" r:id="rId152" display="https://www.youtube.com/watch?v=FO07ssbT9bA&amp;t=2726s"/>
     <hyperlink ref="D154" r:id="rId153" display="https://www.youtube.com/watch?v=TPShfpgrg6k&amp;t=2316s"/>
-    <hyperlink ref="D155" r:id="rId154" display="https://www.youtube.com/watch?v=b88hhCCKu4E&amp;t=4974s"/>
-    <hyperlink ref="D156" r:id="rId155" display="https://www.youtube.com/watch?v=i5qd1RMfkRE&amp;t=1773s"/>
-    <hyperlink ref="D157" r:id="rId156" display="https://www.youtube.com/watch?v=vFqCyRdVfXI&amp;t=687s"/>
-    <hyperlink ref="D158" r:id="rId157" display="https://www.youtube.com/watch?v=1wSNs8fpIdk&amp;t=658s"/>
-    <hyperlink ref="D159" r:id="rId158" display="https://www.youtube.com/watch?v=JV6ZUdw_lXQ&amp;t=7148s"/>
-    <hyperlink ref="D160" r:id="rId159" display="https://www.youtube.com/watch?v=2zp6o_3CRzU&amp;t=2699s"/>
-    <hyperlink ref="D161" r:id="rId160" display="https://www.youtube.com/watch?v=EFEFEcYl9es&amp;t=2040s"/>
-    <hyperlink ref="D162" r:id="rId161" display="https://www.youtube.com/watch?v=gl486Y5GB0w&amp;t=130s"/>
-    <hyperlink ref="D163" r:id="rId162" display="https://www.youtube.com/watch?v=YYCPETGxTuE&amp;t=795s"/>
-    <hyperlink ref="D164" r:id="rId163" display="https://www.youtube.com/watch?v=K1UKsLlNvUo&amp;t=133s"/>
-    <hyperlink ref="D165" r:id="rId164" display="https://www.youtube.com/watch?v=O1pUs5EpWVQ&amp;t=783s"/>
-    <hyperlink ref="D166" r:id="rId165" display="https://www.youtube.com/watch?v=UkA5tTr8JFQ&amp;t=4268s"/>
-    <hyperlink ref="D167" r:id="rId166" display="https://www.youtube.com/watch?v=8WIjnu3QRus&amp;t=3692s"/>
-    <hyperlink ref="D168" r:id="rId167" display="https://www.youtube.com/watch?v=kx99oKm_K_U&amp;t=5289s"/>
-    <hyperlink ref="D169" r:id="rId168" display="https://www.youtube.com/watch?v=MfRXdjOznRQ&amp;t=387s"/>
-    <hyperlink ref="D170" r:id="rId169" display="https://www.youtube.com/watch?v=n4NhvxPxpuw&amp;t=831s"/>
-    <hyperlink ref="D171" r:id="rId170" display="https://www.youtube.com/watch?v=vjPoFyTUt8Q&amp;t=98s"/>
-    <hyperlink ref="D172" r:id="rId171" display="https://www.youtube.com/watch?v=FfW2yyxBHpg&amp;t=858s"/>
-    <hyperlink ref="D173" r:id="rId172" display="https://www.youtube.com/watch?v=Bbaal2Neohk&amp;t=5732s"/>
-    <hyperlink ref="D174" r:id="rId173" display="https://www.youtube.com/watch?v=PwGdpbguE4w&amp;t=236s"/>
-    <hyperlink ref="D175" r:id="rId174" display="https://www.youtube.com/watch?v=xPgddk3AnRQ&amp;t=201s"/>
-    <hyperlink ref="D176" r:id="rId175" display="https://www.youtube.com/watch?v=xPgddk3AnRQ&amp;t=428s"/>
-    <hyperlink ref="D177" r:id="rId176" display="https://www.youtube.com/watch?v=kulZ_sWzBR0&amp;t=2786s"/>
-    <hyperlink ref="D178" r:id="rId177" display="https://www.youtube.com/watch?v=_2oPQqf2x28&amp;t=510s"/>
-    <hyperlink ref="D179" r:id="rId178" display="https://www.youtube.com/watch?v=y5Tib_IRHk0&amp;t=462s"/>
-    <hyperlink ref="D180" r:id="rId179" display="https://www.youtube.com/watch?v=WuJWc_b33FA&amp;t=2722s"/>
-    <hyperlink ref="D181" r:id="rId180" display="https://www.youtube.com/watch?v=r4o0Vg6NQNc&amp;t=3385s"/>
-    <hyperlink ref="D182" r:id="rId181" display="https://www.youtube.com/watch?v=O5raFzyCm70&amp;t=137s"/>
-    <hyperlink ref="D183" r:id="rId182" display="https://www.youtube.com/watch?v=kqygC_F0bJk&amp;t=532s"/>
-    <hyperlink ref="D184" r:id="rId183" display="https://www.youtube.com/watch?v=l_G2uCqqWOA&amp;t=177s"/>
-    <hyperlink ref="D185" r:id="rId184" display="https://www.youtube.com/watch?v=OQqWR2Zii_8&amp;t=6180s"/>
-    <hyperlink ref="D186" r:id="rId185" display="https://www.youtube.com/watch?v=lNfbZbkcVVE&amp;t=2739s"/>
-    <hyperlink ref="D187" r:id="rId186" display="https://www.youtube.com/watch?v=udNdqhGlkSA&amp;t=624s"/>
-    <hyperlink ref="D188" r:id="rId187" display="https://www.youtube.com/watch?v=b88hhCCKu4E&amp;t=7456s"/>
-    <hyperlink ref="D189" r:id="rId188" display="https://www.youtube.com/watch?v=R02ljlzvh_A&amp;t=2499s"/>
-    <hyperlink ref="D190" r:id="rId189" display="https://www.youtube.com/watch?v=JA4fcNdKTZk&amp;t=6633s"/>
-    <hyperlink ref="D191" r:id="rId190" display="https://www.youtube.com/watch?v=B20syZBudR8&amp;t=389s"/>
-    <hyperlink ref="D192" r:id="rId191" display="https://www.youtube.com/watch?v=657jf2KYTfw&amp;t=1380s"/>
-    <hyperlink ref="D193" r:id="rId192" display="https://www.youtube.com/watch?v=DRgO_DeUJi4&amp;t=5711s"/>
-    <hyperlink ref="D194" r:id="rId193" display="https://www.youtube.com/watch?v=jWVWwpm_IHw&amp;t=1480s"/>
-    <hyperlink ref="D195" r:id="rId194" display="https://www.youtube.com/watch?v=g6yvs1f4S1s&amp;t=7915s"/>
-    <hyperlink ref="D196" r:id="rId195" display="https://www.youtube.com/watch?v=R2C3fHcNm1k&amp;t=7644s"/>
-    <hyperlink ref="D197" r:id="rId196" display="https://www.youtube.com/watch?v=N0dXKAgwCuA&amp;t=244s"/>
-    <hyperlink ref="D198" r:id="rId197" display="https://www.youtube.com/watch?v=D24GkA9yMFI&amp;t=3559s"/>
-    <hyperlink ref="D199" r:id="rId198" display="https://www.youtube.com/watch?v=JxcQrfHYKqI&amp;t=5370s"/>
-    <hyperlink ref="D200" r:id="rId199" display="https://www.youtube.com/watch?v=P_Xncte6zqg&amp;t=1423s"/>
-    <hyperlink ref="D201" r:id="rId200" display="https://www.youtube.com/watch?v=PahaNi4E0OI&amp;t=1479s"/>
-    <hyperlink ref="D202" r:id="rId201" display="https://www.youtube.com/watch?v=8DtAfW7ig1k&amp;t=4709s"/>
-    <hyperlink ref="D203" r:id="rId202" display="https://www.youtube.com/watch?v=v7PglYyVLPQ&amp;t=706s"/>
-    <hyperlink ref="D204" r:id="rId203" display="https://www.youtube.com/watch?v=kulZ_sWzBR0&amp;t=9451s"/>
-    <hyperlink ref="D205" r:id="rId204" display="https://www.youtube.com/watch?v=bIppytTQ0aI&amp;t=4173s"/>
-    <hyperlink ref="D206" r:id="rId205" display="https://www.youtube.com/watch?v=cslXqrcH5qg&amp;t=5426s"/>
-    <hyperlink ref="D207" r:id="rId206" display="https://www.youtube.com/watch?v=Y5kxIA77e1E&amp;t=3639s"/>
-    <hyperlink ref="D208" r:id="rId207" display="https://www.youtube.com/watch?v=q3pHIFxH1ug&amp;t=839s"/>
-    <hyperlink ref="D209" r:id="rId208" display="https://www.youtube.com/watch?v=ncy57YkTtdU&amp;t=2514s"/>
-    <hyperlink ref="D210" r:id="rId209" display="https://www.youtube.com/watch?v=cvsKxQ5nsZo&amp;t=62s"/>
-    <hyperlink ref="D211" r:id="rId210" display="https://www.youtube.com/watch?v=wH4L9NiHHIE&amp;t=6468s"/>
-    <hyperlink ref="D212" r:id="rId211" display="https://www.youtube.com/watch?v=EC4gKcDZvug&amp;t=1395s"/>
-    <hyperlink ref="D213" r:id="rId212" display="https://www.youtube.com/watch?v=TQhN5dJS35A&amp;t=353s"/>
-    <hyperlink ref="D214" r:id="rId213" display="https://www.youtube.com/watch?v=dWyhBea_0RU&amp;t=1435s"/>
-    <hyperlink ref="D215" r:id="rId214" display="https://www.youtube.com/watch?v=LeIuG8Wq2WY&amp;t=7343s"/>
-    <hyperlink ref="D216" r:id="rId215" display="https://www.youtube.com/watch?v=G1zar5B3V0c&amp;t=390s"/>
-    <hyperlink ref="D217" r:id="rId216" display="https://www.youtube.com/watch?v=eFKv8712V4w&amp;t=7342s"/>
-    <hyperlink ref="D218" r:id="rId217" display="https://www.youtube.com/watch?v=bt7g4VoVBoE&amp;t=279s"/>
-    <hyperlink ref="D219" r:id="rId218" display="https://www.youtube.com/watch?v=bIppytTQ0aI&amp;t=2592s"/>
-    <hyperlink ref="D220" r:id="rId219" display="https://www.youtube.com/watch?v=YedJhuZQqpI&amp;t=3473s"/>
-    <hyperlink ref="D221" r:id="rId220" display="https://www.youtube.com/watch?v=rXAAGktXqQ4&amp;t=1738s"/>
-    <hyperlink ref="D222" r:id="rId221" display="https://www.youtube.com/watch?v=6_VFindbcQY&amp;t=808s"/>
-    <hyperlink ref="D223" r:id="rId222" display="https://www.youtube.com/watch?v=eclvhqDvwF8&amp;t=196s"/>
-    <hyperlink ref="D224" r:id="rId223" display="https://www.youtube.com/watch?v=rDo7bb0Ts4o&amp;t=975s"/>
-    <hyperlink ref="D225" r:id="rId224" display="https://www.youtube.com/watch?v=lQ2yjMzByCI&amp;t=213s"/>
-    <hyperlink ref="D226" r:id="rId225" display="https://www.youtube.com/watch?v=ryJ7MtDof9Y&amp;t=681s"/>
-    <hyperlink ref="D227" r:id="rId226" display="https://www.youtube.com/watch?v=24MOyiODODk&amp;t=1929s"/>
-    <hyperlink ref="D228" r:id="rId227" display="https://www.youtube.com/watch?v=PIpqGqIK22g&amp;t=32s"/>
-    <hyperlink ref="D229" r:id="rId228" display="https://www.youtube.com/watch?v=BWSxerD3LDc&amp;t=319s"/>
-    <hyperlink ref="D230" r:id="rId229" display="https://www.youtube.com/watch?v=UrEJ7oAhcX8&amp;t=1744s"/>
-    <hyperlink ref="D231" r:id="rId230" display="https://www.youtube.com/watch?v=GbGphIW_pwU&amp;t=178s"/>
-    <hyperlink ref="D232" r:id="rId231" display="https://www.youtube.com/watch?v=rAkxQk_SimU&amp;t=3773s"/>
-    <hyperlink ref="D233" r:id="rId232" display="https://www.youtube.com/watch?v=jwYlYq6oGIU&amp;t=602s"/>
-    <hyperlink ref="D234" r:id="rId233" display="https://www.youtube.com/watch?v=DcameSrKBOM&amp;t=853s"/>
-    <hyperlink ref="D235" r:id="rId234" display="https://www.youtube.com/watch?v=oE9qrxR7DpI&amp;t=2077s"/>
-    <hyperlink ref="D236" r:id="rId235" display="https://www.youtube.com/watch?v=MXciFLdLVSY&amp;t=917s"/>
-    <hyperlink ref="D237" r:id="rId236" display="https://www.youtube.com/watch?v=1f77ar1m7Ks&amp;t=2970s"/>
-    <hyperlink ref="D238" r:id="rId237" display="https://www.youtube.com/watch?v=6eBEz91Zwh8&amp;t=1947s"/>
-    <hyperlink ref="D239" r:id="rId238" display="https://www.youtube.com/watch?v=OALASDJOKb8&amp;t=2925s"/>
-    <hyperlink ref="D240" r:id="rId239" display="https://www.youtube.com/watch?v=TLv5OWfkU8U&amp;t=510s"/>
-    <hyperlink ref="D241" r:id="rId240" display="https://www.youtube.com/watch?v=pUUoRExmU1E&amp;t=411s"/>
-    <hyperlink ref="D242" r:id="rId241" display="https://www.youtube.com/watch?v=GZG9nDbIgXM&amp;t=2075s"/>
-    <hyperlink ref="D243" r:id="rId242" display="https://www.youtube.com/watch?v=r4o0Vg6NQNc&amp;t=6654s"/>
-    <hyperlink ref="D244" r:id="rId243" display="https://www.youtube.com/watch?v=HOkBohJhbPE&amp;t=2974s"/>
-    <hyperlink ref="D245" r:id="rId244" display="https://www.youtube.com/watch?v=StCt0Vr9CU4&amp;t=342s"/>
-    <hyperlink ref="D246" r:id="rId245" display="https://www.youtube.com/watch?v=3n3meg4bfnI&amp;t=1250s"/>
-    <hyperlink ref="D247" r:id="rId246" display="https://www.youtube.com/watch?v=sVg7ZFD2dyg&amp;t=6465s"/>
-    <hyperlink ref="D248" r:id="rId247" display="https://www.youtube.com/watch?v=Ks19MD2LRUw&amp;t=1335s"/>
-    <hyperlink ref="D249" r:id="rId248" display="https://www.youtube.com/watch?v=Aw5ynnoQnQE&amp;t=6564s"/>
-    <hyperlink ref="D250" r:id="rId249" display="https://www.youtube.com/watch?v=9Ez5806fqiw&amp;t=6156s"/>
-    <hyperlink ref="D251" r:id="rId250" display="https://www.youtube.com/watch?v=DQ17hv_KGAE&amp;t=351s"/>
-    <hyperlink ref="D252" r:id="rId251" display="https://www.youtube.com/watch?v=7rfe_gEbcvY&amp;t=69s"/>
-    <hyperlink ref="D253" r:id="rId252" display="https://www.youtube.com/watch?v=OPpf7EGdKeY&amp;t=82s"/>
-    <hyperlink ref="D254" r:id="rId253" display="https://www.youtube.com/watch?v=9GbYnL0tvcg&amp;t=1201s"/>
-    <hyperlink ref="D255" r:id="rId254" display="https://www.youtube.com/watch?v=2mGviC7sN1Y&amp;t=742s"/>
-    <hyperlink ref="D256" r:id="rId255" display="https://www.youtube.com/watch?v=J1oQ6t6XSuM&amp;t=1023s"/>
-    <hyperlink ref="D257" r:id="rId256" display="https://www.youtube.com/watch?v=iSIdXpAd76I&amp;t=781s"/>
-    <hyperlink ref="D258" r:id="rId257" display="https://www.youtube.com/watch?v=O5SvwYGbXCE&amp;t=5759s"/>
-    <hyperlink ref="D259" r:id="rId258" display="https://www.youtube.com/watch?v=K8fgPqaaJrA&amp;t=1036s"/>
-    <hyperlink ref="D260" r:id="rId259" display="https://www.youtube.com/watch?v=zgQbOmPp9pk&amp;t=2226s"/>
-    <hyperlink ref="D261" r:id="rId260" display="https://www.youtube.com/watch?v=pHR9Y_R6DGQ&amp;t=602s"/>
-    <hyperlink ref="D262" r:id="rId261" display="https://www.youtube.com/watch?v=lHNtdUcq2_A&amp;t=6525s"/>
-    <hyperlink ref="D263" r:id="rId262" display="https://www.youtube.com/watch?v=EcfG7zdjBYQ&amp;t=5879s"/>
-    <hyperlink ref="D264" r:id="rId263" display="https://www.youtube.com/watch?v=iSIdXpAd76I&amp;t=475s"/>
-    <hyperlink ref="D265" r:id="rId264" display="https://www.youtube.com/watch?v=lNwXQrpMfhM&amp;t=1388s"/>
-    <hyperlink ref="D266" r:id="rId265" display="https://www.youtube.com/watch?v=iZr9uku31qI&amp;t=974s"/>
-    <hyperlink ref="D267" r:id="rId266" display="https://www.youtube.com/watch?v=dcrF0fcizRA&amp;t=7832s"/>
-    <hyperlink ref="D268" r:id="rId267" display="https://www.youtube.com/watch?v=u3H8oA9fMXk&amp;t=104s"/>
-    <hyperlink ref="D269" r:id="rId268" display="https://www.youtube.com/watch?v=jocluVfUT48&amp;t=118s"/>
-    <hyperlink ref="D270" r:id="rId269" display="https://www.youtube.com/watch?v=C_IXiaaAow8&amp;t=263s"/>
-    <hyperlink ref="D271" r:id="rId270" display="https://www.youtube.com/watch?v=Am5xsXJ4uMs&amp;t=215s"/>
-    <hyperlink ref="D272" r:id="rId271" display="https://www.youtube.com/watch?v=NEWpNB8q2cs&amp;t=499s"/>
-    <hyperlink ref="D273" r:id="rId272" display="https://www.youtube.com/watch?v=YbQ3V93arTA&amp;t=1433s"/>
-    <hyperlink ref="D274" r:id="rId273" display="https://www.youtube.com/watch?v=fzfB0mxWFRY&amp;t=179s"/>
-    <hyperlink ref="D275" r:id="rId274" display="https://www.youtube.com/watch?v=vGUm_5F0zbI&amp;t=790s"/>
-    <hyperlink ref="D276" r:id="rId275" display="https://www.youtube.com/watch?v=Rm6zwwnAVeA&amp;t=2731s"/>
-    <hyperlink ref="D277" r:id="rId276" display="https://www.youtube.com/watch?v=CSBjx9ri7aI&amp;t=650s"/>
-    <hyperlink ref="D278" r:id="rId277" display="https://www.youtube.com/watch?v=9EaLkRsP3Ps&amp;t=1411s"/>
-    <hyperlink ref="D279" r:id="rId278" display="https://www.youtube.com/watch?v=3HutEP1zOds&amp;t=3456s"/>
-    <hyperlink ref="D280" r:id="rId279" display="https://www.youtube.com/watch?v=YN6xuSz86PA&amp;t=1527s"/>
-    <hyperlink ref="D281" r:id="rId280" display="https://www.youtube.com/watch?v=AjQkYpuB6Dc&amp;t=1018s"/>
-    <hyperlink ref="D282" r:id="rId281" display="https://www.youtube.com/watch?v=7rfe_gEbcvY&amp;t=198s"/>
-    <hyperlink ref="D283" r:id="rId282" display="https://www.youtube.com/watch?v=s_PFLeOKK8U&amp;t=1811s"/>
-    <hyperlink ref="D284" r:id="rId283" display="https://www.youtube.com/watch?v=CO0mpeAGeak&amp;t=373s"/>
-    <hyperlink ref="D285" r:id="rId284" display="https://www.youtube.com/watch?v=p2NgeOyvtZs&amp;t=3151s"/>
-    <hyperlink ref="D286" r:id="rId285" display="https://www.youtube.com/watch?v=TPShfpgrg6k&amp;t=338s"/>
-    <hyperlink ref="D287" r:id="rId286" display="https://www.youtube.com/watch?v=QepY2n76x2w&amp;t=4079s"/>
-    <hyperlink ref="D288" r:id="rId287" display="https://www.youtube.com/watch?v=J3lK1h2j7Lo&amp;t=4319s"/>
-    <hyperlink ref="D289" r:id="rId288" display="https://www.youtube.com/watch?v=kz72ug8K3nc&amp;t=294s"/>
-    <hyperlink ref="D290" r:id="rId289" display="https://www.youtube.com/watch?v=OALASDJOKb8&amp;t=1390s"/>
-    <hyperlink ref="D291" r:id="rId290" display="https://www.youtube.com/watch?v=GrNe1flIAJo&amp;t=682s"/>
-    <hyperlink ref="D292" r:id="rId291" display="https://www.youtube.com/watch?v=g6yvs1f4S1s&amp;t=5685s"/>
-    <hyperlink ref="D293" r:id="rId292" display="https://www.youtube.com/watch?v=_FsOnRDIJQQ&amp;t=4250s"/>
-    <hyperlink ref="D294" r:id="rId293" display="https://www.youtube.com/watch?v=jPf73XVPQro&amp;t=231s"/>
-    <hyperlink ref="D295" r:id="rId294" display="https://www.youtube.com/watch?v=24MOyiODODk&amp;t=4655s"/>
-    <hyperlink ref="D296" r:id="rId295" display="https://www.youtube.com/watch?v=mpg2dM5DrGg&amp;t=1336s"/>
-    <hyperlink ref="D297" r:id="rId296" display="https://www.youtube.com/watch?v=RPJg_lUfHvI&amp;t=5887s"/>
-    <hyperlink ref="D298" r:id="rId297" display="https://www.youtube.com/watch?v=GbGphIW_pwU&amp;t=129s"/>
-    <hyperlink ref="D299" r:id="rId298" display="https://www.youtube.com/watch?v=K8fgPqaaJrA&amp;t=1036s"/>
-    <hyperlink ref="D300" r:id="rId299" display="https://www.youtube.com/watch?v=zcB4iv0Jzbw&amp;t=8s"/>
-    <hyperlink ref="D301" r:id="rId300" display="https://www.youtube.com/watch?v=OQqWR2Zii_8&amp;t=4216s"/>
-    <hyperlink ref="D302" r:id="rId301" display="https://www.youtube.com/watch?v=InhONwjflFE&amp;t=68s"/>
-    <hyperlink ref="D303" r:id="rId302" display="https://www.youtube.com/watch?v=NZtdIIX5Xm4&amp;t=941s"/>
-    <hyperlink ref="D304" r:id="rId303" display="https://www.youtube.com/watch?v=_4P2MxdLA6M&amp;t=13s"/>
-    <hyperlink ref="D305" r:id="rId304" display="https://www.youtube.com/watch?v=x8yoLCYSzVw&amp;t=6395s"/>
-    <hyperlink ref="D306" r:id="rId305" display="https://www.youtube.com/watch?v=gl486Y5GB0w&amp;t=4819s"/>
-    <hyperlink ref="D307" r:id="rId306" display="https://www.youtube.com/watch?v=GdJVLA16hUc&amp;t=1867s"/>
-    <hyperlink ref="D308" r:id="rId307" display="https://www.youtube.com/watch?v=8bORUKi26Cc&amp;t=188s"/>
-    <hyperlink ref="D309" r:id="rId308" display="https://www.youtube.com/watch?v=lsciLyjICMk&amp;t=5739s"/>
-    <hyperlink ref="D310" r:id="rId309" display="https://www.youtube.com/watch?v=h_zydUpJF08&amp;t=600s"/>
-    <hyperlink ref="D311" r:id="rId310" display="https://www.youtube.com/watch?v=abGujUVqjiQ&amp;t=220s"/>
-    <hyperlink ref="D312" r:id="rId311" display="https://www.youtube.com/watch?v=iqc5P0IEYTY&amp;t=188s"/>
-    <hyperlink ref="D313" r:id="rId312" display="https://www.youtube.com/watch?v=z7IjzketUfY&amp;t=2964s"/>
-    <hyperlink ref="D314" r:id="rId313" display="https://www.youtube.com/watch?v=NudrNCdBxAE&amp;t=58s"/>
-    <hyperlink ref="D315" r:id="rId314" display="https://www.youtube.com/watch?v=r6RJWuLenrU&amp;t=8420s"/>
-    <hyperlink ref="D316" r:id="rId315" display="https://www.youtube.com/watch?v=n9GK7BR0sq0&amp;t=56s"/>
-    <hyperlink ref="D317" r:id="rId316" display="https://www.youtube.com/watch?v=hX8S64wZSDU&amp;t=2420s"/>
-    <hyperlink ref="D318" r:id="rId317" display="https://www.youtube.com/watch?v=94KUKlC1rlc&amp;t=8098s"/>
-    <hyperlink ref="D319" r:id="rId318" display="https://www.youtube.com/watch?v=7jaQmQj3Wgo&amp;t=1532s"/>
-    <hyperlink ref="D320" r:id="rId319" display="https://www.youtube.com/watch?v=yMJXOjtvUkc&amp;t=302s"/>
-    <hyperlink ref="D321" r:id="rId320" display="https://www.youtube.com/watch?v=fKXuUv7QVbE&amp;t=542s"/>
-    <hyperlink ref="D322" r:id="rId321" display="https://www.youtube.com/watch?v=8V9tq1pe8eI&amp;t=1294s"/>
-    <hyperlink ref="D323" r:id="rId322" display="https://www.youtube.com/watch?v=bIppytTQ0aI&amp;t=4899s"/>
-    <hyperlink ref="D324" r:id="rId323" display="https://www.youtube.com/watch?v=g6yvs1f4S1s&amp;t=5929s"/>
-    <hyperlink ref="D325" r:id="rId324" display="https://www.youtube.com/watch?v=tN1putCohn4&amp;t=4616s"/>
-    <hyperlink ref="D326" r:id="rId325" display="https://www.youtube.com/watch?v=ud9s8aerIJE&amp;t=213s"/>
-    <hyperlink ref="D327" r:id="rId326" display="https://www.youtube.com/watch?v=wBpVQln4MIU&amp;t=638s"/>
-    <hyperlink ref="D328" r:id="rId327" display="https://www.youtube.com/watch?v=nqovdxY2Mmw&amp;t=1751s"/>
-    <hyperlink ref="D329" r:id="rId328" display="https://www.youtube.com/watch?v=fgTr47WT4rI&amp;t=935s"/>
-    <hyperlink ref="D330" r:id="rId329" display="https://www.youtube.com/watch?v=40E_FNfIXWs&amp;t=34s"/>
-    <hyperlink ref="D331" r:id="rId330" display="https://www.youtube.com/watch?v=ndssE4SMOaA&amp;t=6364s"/>
-    <hyperlink ref="D332" r:id="rId331" display="https://www.youtube.com/watch?v=XiNcefaL6ug&amp;t=214s"/>
-    <hyperlink ref="D333" r:id="rId332" display="https://www.youtube.com/watch?v=v7PglYyVLPQ&amp;t=1935s"/>
-    <hyperlink ref="D334" r:id="rId333" display="https://www.youtube.com/watch?v=3PDJDym1ZXQ&amp;t=4156s"/>
-    <hyperlink ref="D335" r:id="rId334" display="https://www.youtube.com/watch?v=d3LdJzLdpCI&amp;t=2243s"/>
-    <hyperlink ref="D336" r:id="rId335" display="https://www.youtube.com/watch?v=NV_G6wX2xtQ&amp;t=465s"/>
-    <hyperlink ref="D337" r:id="rId336" display="https://www.youtube.com/watch?v=VWZCDkOGm1o&amp;t=640s"/>
-    <hyperlink ref="D338" r:id="rId337" display="https://www.youtube.com/watch?v=TVy2hkF_G9c&amp;t=6989s"/>
-    <hyperlink ref="D339" r:id="rId338" display="https://www.youtube.com/watch?v=EcfG7zdjBYQ&amp;t=4186s"/>
-    <hyperlink ref="D340" r:id="rId339" display="https://www.youtube.com/watch?v=XBDHpKH8Ar0&amp;t=2313s"/>
-    <hyperlink ref="D341" r:id="rId340" display="https://www.youtube.com/watch?v=NTG7NZgQals&amp;t=497s"/>
-    <hyperlink ref="D342" r:id="rId341" display="https://www.youtube.com/watch?v=vsDoBhQJ1hY&amp;t=1726s"/>
-    <hyperlink ref="D343" r:id="rId342" display="https://www.youtube.com/watch?v=m3Clq7uulPg&amp;t=6246s"/>
-    <hyperlink ref="D344" r:id="rId343" display="https://www.youtube.com/watch?v=kzEvSIem_n4&amp;t=406s"/>
-    <hyperlink ref="D345" r:id="rId344" display="https://www.youtube.com/watch?v=JV6ZUdw_lXQ&amp;t=6184s"/>
-    <hyperlink ref="D346" r:id="rId345" display="https://www.youtube.com/watch?v=tdnuZzBifR4&amp;t=229s"/>
-    <hyperlink ref="D347" r:id="rId346" display="https://www.youtube.com/watch?v=J3lK1h2j7Lo&amp;t=8797s"/>
-    <hyperlink ref="D348" r:id="rId347" display="https://www.youtube.com/watch?v=FUS0hsPCtMs&amp;t=1006s"/>
-    <hyperlink ref="D349" r:id="rId348" display="https://www.youtube.com/watch?v=BWSxerD3LDc&amp;t=1800s"/>
-    <hyperlink ref="D350" r:id="rId349" display="https://www.youtube.com/watch?v=WyHI8VAPJzw&amp;t=7170s"/>
-    <hyperlink ref="D351" r:id="rId350" display="https://www.youtube.com/watch?v=zGtfxNItG6E&amp;t=303s"/>
-    <hyperlink ref="D352" r:id="rId351" display="https://www.youtube.com/watch?v=yNr1Glj5MdQ&amp;t=305s"/>
-    <hyperlink ref="D353" r:id="rId352" display="https://www.youtube.com/watch?v=jwYlYq6oGIU&amp;t=1774s"/>
-    <hyperlink ref="D354" r:id="rId353" display="https://www.youtube.com/watch?v=glntkvUyUZU&amp;t=5744s"/>
-    <hyperlink ref="D355" r:id="rId354" display="https://www.youtube.com/watch?v=9_tDN6MkiYc&amp;t=18s"/>
-    <hyperlink ref="D356" r:id="rId355" display="https://www.youtube.com/watch?v=HeXezF4VrJ8&amp;t=939s"/>
-    <hyperlink ref="D357" r:id="rId356" display="https://www.youtube.com/watch?v=EvSVykyXNGE&amp;t=7293s"/>
-    <hyperlink ref="D358" r:id="rId357" display="https://www.youtube.com/watch?v=rUafZNR1GxY&amp;t=399s"/>
-    <hyperlink ref="D359" r:id="rId358" display="https://www.youtube.com/watch?v=xJMJ97AX5zE&amp;t=7089s"/>
-    <hyperlink ref="D360" r:id="rId359" display="https://www.youtube.com/watch?v=yGMZGa090vU&amp;t=8071s"/>
-    <hyperlink ref="D361" r:id="rId360" display="https://www.youtube.com/watch?v=GimA7_uhyWg&amp;t=1635s"/>
-    <hyperlink ref="D362" r:id="rId361" display="https://www.youtube.com/watch?v=o0vdJUDd7hQ&amp;t=356s"/>
-    <hyperlink ref="D363" r:id="rId362" display="https://www.youtube.com/watch?v=od_ZPJBFYUA&amp;t=6389s"/>
-    <hyperlink ref="D364" r:id="rId363" display="https://www.youtube.com/watch?v=J0CIPlClrbk&amp;t=22s"/>
-    <hyperlink ref="D365" r:id="rId364" display="https://www.youtube.com/watch?v=WfWBcS5okFM&amp;t=327s"/>
-    <hyperlink ref="D366" r:id="rId365" display="https://www.youtube.com/watch?v=RqQe0ewBrD0&amp;t=5280s"/>
-    <hyperlink ref="D367" r:id="rId366" display="https://www.youtube.com/watch?v=f8iA6v4mRAY&amp;t=2s"/>
-    <hyperlink ref="D368" r:id="rId367" display="https://www.youtube.com/watch?v=pvormvsvwNc&amp;t=32s"/>
-    <hyperlink ref="D369" r:id="rId368" display="https://www.youtube.com/watch?v=hlC5TDHXSnQ&amp;t=335s"/>
-    <hyperlink ref="D370" r:id="rId369" display="https://www.youtube.com/watch?v=HRqQ03eeLmU&amp;t=712s"/>
-    <hyperlink ref="D371" r:id="rId370" display="https://www.youtube.com/watch?v=Ssg7vpw8Zb4&amp;t=122s"/>
-    <hyperlink ref="D372" r:id="rId371" display="https://www.youtube.com/watch?v=n8sYBXvKJFo&amp;t=87s"/>
-    <hyperlink ref="D373" r:id="rId372" display="https://www.youtube.com/watch?v=PlyZ7qY2UX0&amp;t=1449s"/>
-    <hyperlink ref="D374" r:id="rId373" display="https://www.youtube.com/watch?v=Z3c_UEvxq3U&amp;t=1023s"/>
-    <hyperlink ref="D375" r:id="rId374" display="https://www.youtube.com/watch?v=od_ZPJBFYUA&amp;t=5204s"/>
-    <hyperlink ref="D376" r:id="rId375" display="https://www.youtube.com/watch?v=0NzVTxwJbfo&amp;t=233s"/>
-    <hyperlink ref="D377" r:id="rId376" display="https://www.youtube.com/watch?v=vRtC1qfqd6s&amp;t=1120s"/>
-    <hyperlink ref="D378" r:id="rId377" display="https://www.youtube.com/watch?v=U8KJtDtBtSU&amp;t=168s"/>
-    <hyperlink ref="D379" r:id="rId378" display="https://www.youtube.com/watch?v=ltPlqlczJyY&amp;t=126s"/>
-    <hyperlink ref="D380" r:id="rId379" display="https://www.youtube.com/watch?v=mpg2dM5DrGg&amp;t=4309s"/>
-    <hyperlink ref="D381" r:id="rId380" display="https://www.youtube.com/watch?v=EvSVykyXNGE&amp;t=4368s"/>
-    <hyperlink ref="D382" r:id="rId381" display="https://www.youtube.com/watch?v=G1Bomj1CKnk&amp;t=101s"/>
-    <hyperlink ref="D383" r:id="rId382" display="https://www.youtube.com/watch?v=dWIJFBbJSn4&amp;t=52s"/>
-    <hyperlink ref="D384" r:id="rId383" display="https://www.youtube.com/watch?v=5C7iQd4nGBE&amp;t=259s"/>
-    <hyperlink ref="D385" r:id="rId384" display="https://www.youtube.com/watch?v=zLSi0My6vuQ&amp;t=2268s"/>
-    <hyperlink ref="D386" r:id="rId385" display="https://www.youtube.com/watch?v=TPShfpgrg6k&amp;t=3776s"/>
-    <hyperlink ref="D387" r:id="rId386" display="https://www.youtube.com/watch?v=EcfG7zdjBYQ&amp;t=2991s"/>
-    <hyperlink ref="D388" r:id="rId387" display="https://www.youtube.com/watch?v=fI1BI4d5KFU&amp;t=5541s"/>
-    <hyperlink ref="D389" r:id="rId388" display="https://www.youtube.com/watch?v=lREyKzqpCjE&amp;t=4970s"/>
-    <hyperlink ref="D390" r:id="rId389" display="https://www.youtube.com/watch?v=vA4ywYo4QbY&amp;t=673s"/>
-    <hyperlink ref="D391" r:id="rId390" display="https://www.youtube.com/watch?v=_FsOnRDIJQQ&amp;t=1415s"/>
-    <hyperlink ref="D392" r:id="rId391" display="https://www.youtube.com/watch?v=tsI6CFPkguQ&amp;t=5098s"/>
-    <hyperlink ref="D393" r:id="rId392" display="https://www.youtube.com/watch?v=i5qd1RMfkRE&amp;t=1773s"/>
-    <hyperlink ref="D394" r:id="rId393" display="https://www.youtube.com/watch?v=sdw58rC22GY&amp;t=603s"/>
-    <hyperlink ref="D395" r:id="rId394" display="https://www.youtube.com/watch?v=MhHCQ_cb3T8&amp;t=7353s"/>
-    <hyperlink ref="D396" r:id="rId395" display="https://www.youtube.com/watch?v=r6RJWuLenrU&amp;t=3172s"/>
-    <hyperlink ref="D397" r:id="rId396" display="https://www.youtube.com/watch?v=LC2QScFT5QI&amp;t=3411s"/>
-    <hyperlink ref="D398" r:id="rId397" display="https://www.youtube.com/watch?v=OeHxe75lMNE&amp;t=5911s"/>
-    <hyperlink ref="D399" r:id="rId398" display="https://www.youtube.com/watch?v=L9YI383QOsU&amp;t=1226s"/>
-    <hyperlink ref="D400" r:id="rId399" display="https://www.youtube.com/watch?v=jwYlYq6oGIU&amp;t=5837s"/>
-    <hyperlink ref="D401" r:id="rId400" display="https://www.youtube.com/watch?v=K_ODmf7NbaE&amp;t=119s"/>
-    <hyperlink ref="D402" r:id="rId401" display="https://www.youtube.com/watch?v=6Pr093ZQF5A&amp;t=2328s"/>
-    <hyperlink ref="D403" r:id="rId402" display="https://www.youtube.com/watch?v=Wt0cStp1_Ww&amp;t=4437s"/>
-    <hyperlink ref="D404" r:id="rId403" display="https://www.youtube.com/watch?v=glntkvUyUZU&amp;t=7158s"/>
-    <hyperlink ref="D405" r:id="rId404" display="https://www.youtube.com/watch?v=yhqfWewF0HE&amp;t=322s"/>
-    <hyperlink ref="D406" r:id="rId405" display="https://www.youtube.com/watch?v=WM2W7dCq3tA&amp;t=2379s"/>
-    <hyperlink ref="D407" r:id="rId406" display="https://www.youtube.com/watch?v=iSrsHDQASVs&amp;t=4835s"/>
-    <hyperlink ref="D408" r:id="rId407" display="https://www.youtube.com/watch?v=SCHpdjoye24&amp;t=16s"/>
-    <hyperlink ref="D409" r:id="rId408" display="https://www.youtube.com/watch?v=FuJumQJG4tA&amp;t=182s"/>
-    <hyperlink ref="D410" r:id="rId409" display="https://www.youtube.com/watch?v=zaHwaMoI314&amp;t=286s"/>
-    <hyperlink ref="D411" r:id="rId410" display="https://www.youtube.com/watch?v=tP3ou_3RGVg&amp;t=6269s"/>
-    <hyperlink ref="D412" r:id="rId411" display="https://www.youtube.com/watch?v=iZjzaNo_vDk&amp;t=1228s"/>
-    <hyperlink ref="D413" r:id="rId412" display="https://www.youtube.com/watch?v=LyvjoFQdsrk&amp;t=131s"/>
-    <hyperlink ref="D414" r:id="rId413" display="https://www.youtube.com/watch?v=EHEujJfFor4&amp;t=240s"/>
-    <hyperlink ref="D415" r:id="rId414" display="https://www.youtube.com/watch?v=BEH6RWDGy7c&amp;t=2836s"/>
-    <hyperlink ref="D416" r:id="rId415" display="https://www.youtube.com/watch?v=2QUV1PPNsZU&amp;t=5735s"/>
-    <hyperlink ref="D417" r:id="rId416" display="https://www.youtube.com/watch?v=HfbVSHnOyWM&amp;t=970s"/>
-    <hyperlink ref="D418" r:id="rId417" display="https://www.youtube.com/watch?v=qD1tBFRTh3c&amp;t=6585s"/>
-    <hyperlink ref="D419" r:id="rId418" display="https://www.youtube.com/watch?v=8ek8uhoEQ9w&amp;t=33s"/>
-    <hyperlink ref="D420" r:id="rId419" display="https://www.youtube.com/watch?v=p0EhpIh1IBY&amp;t=1182s"/>
-    <hyperlink ref="D421" r:id="rId420" display="https://www.youtube.com/watch?v=gFp__jUGAXg&amp;t=157s"/>
-    <hyperlink ref="D422" r:id="rId421" display="https://www.youtube.com/watch?v=Xo8TI7qnHtE&amp;t=330s"/>
-    <hyperlink ref="D423" r:id="rId422" display="https://www.youtube.com/watch?v=Ba_ffkYzPds&amp;t=7348s"/>
-    <hyperlink ref="D424" r:id="rId423" display="https://www.youtube.com/watch?v=xg7ZaRa81Ok&amp;t=1406s"/>
-    <hyperlink ref="D425" r:id="rId424" display="https://www.youtube.com/watch?v=P0U8Cuf5lGM&amp;t=3016s"/>
-    <hyperlink ref="D426" r:id="rId425" display="https://www.youtube.com/watch?v=TrgPuJHj7p8&amp;t=6793s"/>
-    <hyperlink ref="D427" r:id="rId426" display="https://www.youtube.com/watch?v=a5CrSSneht4&amp;t=1862s"/>
-    <hyperlink ref="D428" r:id="rId427" display="https://www.youtube.com/watch?v=Fc4drtbgDb0&amp;t=6615s"/>
-    <hyperlink ref="D429" r:id="rId428" display="https://www.youtube.com/watch?v=moEFBCub_CI&amp;t=353s"/>
-    <hyperlink ref="D430" r:id="rId429" display="https://www.youtube.com/watch?v=EFEFEcYl9es&amp;t=4785s"/>
-    <hyperlink ref="D431" r:id="rId430" display="https://www.youtube.com/watch?v=fgTr47WT4rI&amp;t=8039s"/>
-    <hyperlink ref="D432" r:id="rId431" display="https://www.youtube.com/watch?v=GENdU9GxZ9g&amp;t=7633s"/>
-    <hyperlink ref="D433" r:id="rId432" display="https://www.youtube.com/watch?v=9LivRu_hIow&amp;t=558s"/>
-    <hyperlink ref="D434" r:id="rId433" display="https://www.youtube.com/watch?v=GQgS2ruEJAs&amp;t=4717s"/>
-    <hyperlink ref="D435" r:id="rId434" display="https://www.youtube.com/watch?v=dpyxmIPS1Sw&amp;t=1851s"/>
-    <hyperlink ref="D436" r:id="rId435" display="https://www.youtube.com/watch?v=lgN6dTJvCvA&amp;t=369s"/>
-    <hyperlink ref="D437" r:id="rId436" display="https://www.youtube.com/watch?v=UtcBPDTBiko&amp;t=1637s"/>
-    <hyperlink ref="D438" r:id="rId437" display="https://www.youtube.com/watch?v=PNeuhGDHGyc&amp;t=477s"/>
-    <hyperlink ref="D439" r:id="rId438" display="https://www.youtube.com/watch?v=djxTgqBL2lw&amp;t=19729s"/>
-    <hyperlink ref="D440" r:id="rId439" display="https://www.youtube.com/watch?v=3yy8hKh3Z48&amp;t=174s"/>
-    <hyperlink ref="D441" r:id="rId440" display="https://www.youtube.com/watch?v=ok43drtlLz0&amp;t=2729s"/>
-    <hyperlink ref="D442" r:id="rId441" display="https://www.youtube.com/watch?v=VzghU3Dg_Qk&amp;t=749s"/>
-    <hyperlink ref="D443" r:id="rId442" display="https://www.youtube.com/watch?v=i4cQkYkr8Lo&amp;t=1413s"/>
-    <hyperlink ref="D444" r:id="rId443" display="https://www.youtube.com/watch?v=df634Rr9A54&amp;t=660s"/>
-    <hyperlink ref="D445" r:id="rId444" display="https://www.youtube.com/watch?v=gQg3cyWahgc&amp;t=8100s"/>
-    <hyperlink ref="D446" r:id="rId445" display="https://www.youtube.com/watch?v=BxSZ84hmtmE&amp;t=415s"/>
-    <hyperlink ref="D447" r:id="rId446" display="https://www.youtube.com/watch?v=wH4L9NiHHIE&amp;t=2026s"/>
-    <hyperlink ref="D448" r:id="rId447" display="https://www.youtube.com/watch?v=G7eFHY90kFs&amp;t=4015s"/>
-    <hyperlink ref="D449" r:id="rId448" display="https://www.youtube.com/watch?v=UfpByy3jOCY&amp;t=497s"/>
-    <hyperlink ref="D450" r:id="rId449" display="https://www.youtube.com/watch?v=AXjhxdgCkNw&amp;t=551s"/>
-    <hyperlink ref="D451" r:id="rId450" display="https://www.youtube.com/watch?v=J3lK1h2j7Lo&amp;t=2882s"/>
-    <hyperlink ref="D452" r:id="rId451" display="https://www.youtube.com/watch?v=FGUTSQb5dPM&amp;t=315s"/>
-    <hyperlink ref="D453" r:id="rId452" display="https://www.youtube.com/watch?v=mpg2dM5DrGg&amp;t=5691s"/>
-    <hyperlink ref="D454" r:id="rId453" display="https://www.youtube.com/watch?v=k1ni27c9C2k&amp;t=535s"/>
-    <hyperlink ref="D455" r:id="rId454" display="https://www.youtube.com/watch?v=oCsHNgql560&amp;t=5776s"/>
-    <hyperlink ref="D456" r:id="rId455" display="https://www.youtube.com/watch?v=oCsHNgql560&amp;t=2315s"/>
-    <hyperlink ref="D457" r:id="rId456" display="https://www.youtube.com/watch?v=xHyS_6Hq5GA&amp;t=209s"/>
-    <hyperlink ref="D458" r:id="rId457" display="https://www.youtube.com/watch?v=W_ofzCKTKvY&amp;t=558s"/>
-    <hyperlink ref="D459" r:id="rId458" display="https://www.youtube.com/watch?v=J3lK1h2j7Lo&amp;t=3467s"/>
+    <hyperlink ref="D155" r:id="rId154" display="https://www.youtube.com/watch?v=i5qd1RMfkRE&amp;t=1773s"/>
+    <hyperlink ref="D156" r:id="rId155" display="https://www.youtube.com/watch?v=vFqCyRdVfXI&amp;t=687s"/>
+    <hyperlink ref="D157" r:id="rId156" display="https://www.youtube.com/watch?v=1wSNs8fpIdk&amp;t=658s"/>
+    <hyperlink ref="D158" r:id="rId157" display="https://www.youtube.com/watch?v=JV6ZUdw_lXQ&amp;t=7148s"/>
+    <hyperlink ref="D159" r:id="rId158" display="https://www.youtube.com/watch?v=2zp6o_3CRzU&amp;t=2699s"/>
+    <hyperlink ref="D160" r:id="rId159" display="https://www.youtube.com/watch?v=EFEFEcYl9es&amp;t=2040s"/>
+    <hyperlink ref="D161" r:id="rId160" display="https://www.youtube.com/watch?v=gl486Y5GB0w&amp;t=130s"/>
+    <hyperlink ref="D162" r:id="rId161" display="https://www.youtube.com/watch?v=YYCPETGxTuE&amp;t=795s"/>
+    <hyperlink ref="D163" r:id="rId162" display="https://www.youtube.com/watch?v=K1UKsLlNvUo&amp;t=133s"/>
+    <hyperlink ref="D164" r:id="rId163" display="https://www.youtube.com/watch?v=O1pUs5EpWVQ&amp;t=783s"/>
+    <hyperlink ref="D165" r:id="rId164" display="https://www.youtube.com/watch?v=UkA5tTr8JFQ&amp;t=4268s"/>
+    <hyperlink ref="D166" r:id="rId165" display="https://www.youtube.com/watch?v=8WIjnu3QRus&amp;t=3692s"/>
+    <hyperlink ref="D167" r:id="rId166" display="https://www.youtube.com/watch?v=kx99oKm_K_U&amp;t=5289s"/>
+    <hyperlink ref="D168" r:id="rId167" display="https://www.youtube.com/watch?v=MfRXdjOznRQ&amp;t=387s"/>
+    <hyperlink ref="D169" r:id="rId168" display="https://www.youtube.com/watch?v=n4NhvxPxpuw&amp;t=831s"/>
+    <hyperlink ref="D170" r:id="rId169" display="https://www.youtube.com/watch?v=vjPoFyTUt8Q&amp;t=98s"/>
+    <hyperlink ref="D171" r:id="rId170" display="https://www.youtube.com/watch?v=FfW2yyxBHpg&amp;t=858s"/>
+    <hyperlink ref="D172" r:id="rId171" display="https://www.youtube.com/watch?v=Bbaal2Neohk&amp;t=5732s"/>
+    <hyperlink ref="D173" r:id="rId172" display="https://www.youtube.com/watch?v=PwGdpbguE4w&amp;t=236s"/>
+    <hyperlink ref="D174" r:id="rId173" display="https://www.youtube.com/watch?v=xPgddk3AnRQ&amp;t=201s"/>
+    <hyperlink ref="D175" r:id="rId174" display="https://www.youtube.com/watch?v=xPgddk3AnRQ&amp;t=428s"/>
+    <hyperlink ref="D176" r:id="rId175" display="https://www.youtube.com/watch?v=kulZ_sWzBR0&amp;t=2786s"/>
+    <hyperlink ref="D177" r:id="rId176" display="https://www.youtube.com/watch?v=_2oPQqf2x28&amp;t=510s"/>
+    <hyperlink ref="D178" r:id="rId177" display="https://www.youtube.com/watch?v=y5Tib_IRHk0&amp;t=462s"/>
+    <hyperlink ref="D179" r:id="rId178" display="https://www.youtube.com/watch?v=WuJWc_b33FA&amp;t=2722s"/>
+    <hyperlink ref="D180" r:id="rId179" display="https://www.youtube.com/watch?v=r4o0Vg6NQNc&amp;t=3385s"/>
+    <hyperlink ref="D181" r:id="rId180" display="https://www.youtube.com/watch?v=O5raFzyCm70&amp;t=137s"/>
+    <hyperlink ref="D182" r:id="rId181" display="https://www.youtube.com/watch?v=kqygC_F0bJk&amp;t=532s"/>
+    <hyperlink ref="D183" r:id="rId182" display="https://www.youtube.com/watch?v=l_G2uCqqWOA&amp;t=177s"/>
+    <hyperlink ref="D184" r:id="rId183" display="https://www.youtube.com/watch?v=OQqWR2Zii_8&amp;t=6180s"/>
+    <hyperlink ref="D185" r:id="rId184" display="https://www.youtube.com/watch?v=lNfbZbkcVVE&amp;t=2739s"/>
+    <hyperlink ref="D186" r:id="rId185" display="https://www.youtube.com/watch?v=udNdqhGlkSA&amp;t=624s"/>
+    <hyperlink ref="D187" r:id="rId186" display="https://www.youtube.com/watch?v=b88hhCCKu4E&amp;t=7456s"/>
+    <hyperlink ref="D188" r:id="rId187" display="https://www.youtube.com/watch?v=R02ljlzvh_A&amp;t=2499s"/>
+    <hyperlink ref="D189" r:id="rId188" display="https://www.youtube.com/watch?v=JA4fcNdKTZk&amp;t=6633s"/>
+    <hyperlink ref="D190" r:id="rId189" display="https://www.youtube.com/watch?v=B20syZBudR8&amp;t=389s"/>
+    <hyperlink ref="D191" r:id="rId190" display="https://www.youtube.com/watch?v=657jf2KYTfw&amp;t=1380s"/>
+    <hyperlink ref="D192" r:id="rId191" display="https://www.youtube.com/watch?v=DRgO_DeUJi4&amp;t=5711s"/>
+    <hyperlink ref="D193" r:id="rId192" display="https://www.youtube.com/watch?v=jWVWwpm_IHw&amp;t=1480s"/>
+    <hyperlink ref="D194" r:id="rId193" display="https://www.youtube.com/watch?v=g6yvs1f4S1s&amp;t=7915s"/>
+    <hyperlink ref="D195" r:id="rId194" display="https://www.youtube.com/watch?v=R2C3fHcNm1k&amp;t=7644s"/>
+    <hyperlink ref="D196" r:id="rId195" display="https://www.youtube.com/watch?v=N0dXKAgwCuA&amp;t=244s"/>
+    <hyperlink ref="D197" r:id="rId196" display="https://www.youtube.com/watch?v=D24GkA9yMFI&amp;t=3559s"/>
+    <hyperlink ref="D198" r:id="rId197" display="https://www.youtube.com/watch?v=JxcQrfHYKqI&amp;t=5370s"/>
+    <hyperlink ref="D199" r:id="rId198" display="https://www.youtube.com/watch?v=P_Xncte6zqg&amp;t=1423s"/>
+    <hyperlink ref="D200" r:id="rId199" display="https://www.youtube.com/watch?v=PahaNi4E0OI&amp;t=1479s"/>
+    <hyperlink ref="D201" r:id="rId200" display="https://www.youtube.com/watch?v=8DtAfW7ig1k&amp;t=4709s"/>
+    <hyperlink ref="D202" r:id="rId201" display="https://www.youtube.com/watch?v=v7PglYyVLPQ&amp;t=706s"/>
+    <hyperlink ref="D203" r:id="rId202" display="https://www.youtube.com/watch?v=kulZ_sWzBR0&amp;t=9451s"/>
+    <hyperlink ref="D204" r:id="rId203" display="https://www.youtube.com/watch?v=bIppytTQ0aI&amp;t=4173s"/>
+    <hyperlink ref="D205" r:id="rId204" display="https://www.youtube.com/watch?v=cslXqrcH5qg&amp;t=5426s"/>
+    <hyperlink ref="D206" r:id="rId205" display="https://www.youtube.com/watch?v=Y5kxIA77e1E&amp;t=3639s"/>
+    <hyperlink ref="D207" r:id="rId206" display="https://www.youtube.com/watch?v=q3pHIFxH1ug&amp;t=839s"/>
+    <hyperlink ref="D208" r:id="rId207" display="https://www.youtube.com/watch?v=ncy57YkTtdU&amp;t=2514s"/>
+    <hyperlink ref="D209" r:id="rId208" display="https://www.youtube.com/watch?v=cvsKxQ5nsZo&amp;t=62s"/>
+    <hyperlink ref="D210" r:id="rId209" display="https://www.youtube.com/watch?v=wH4L9NiHHIE&amp;t=6468s"/>
+    <hyperlink ref="D211" r:id="rId210" display="https://www.youtube.com/watch?v=EC4gKcDZvug&amp;t=1395s"/>
+    <hyperlink ref="D212" r:id="rId211" display="https://www.youtube.com/watch?v=TQhN5dJS35A&amp;t=353s"/>
+    <hyperlink ref="D213" r:id="rId212" display="https://www.youtube.com/watch?v=dWyhBea_0RU&amp;t=1435s"/>
+    <hyperlink ref="D214" r:id="rId213" display="https://www.youtube.com/watch?v=LeIuG8Wq2WY&amp;t=7343s"/>
+    <hyperlink ref="D215" r:id="rId214" display="https://www.youtube.com/watch?v=G1zar5B3V0c&amp;t=390s"/>
+    <hyperlink ref="D216" r:id="rId215" display="https://www.youtube.com/watch?v=eFKv8712V4w&amp;t=7342s"/>
+    <hyperlink ref="D217" r:id="rId216" display="https://www.youtube.com/watch?v=bt7g4VoVBoE&amp;t=279s"/>
+    <hyperlink ref="D218" r:id="rId217" display="https://www.youtube.com/watch?v=bIppytTQ0aI&amp;t=2592s"/>
+    <hyperlink ref="D219" r:id="rId218" display="https://www.youtube.com/watch?v=YedJhuZQqpI&amp;t=3473s"/>
+    <hyperlink ref="D220" r:id="rId219" display="https://www.youtube.com/watch?v=rXAAGktXqQ4&amp;t=1738s"/>
+    <hyperlink ref="D221" r:id="rId220" display="https://www.youtube.com/watch?v=6_VFindbcQY&amp;t=808s"/>
+    <hyperlink ref="D222" r:id="rId221" display="https://www.youtube.com/watch?v=eclvhqDvwF8&amp;t=196s"/>
+    <hyperlink ref="D223" r:id="rId222" display="https://www.youtube.com/watch?v=rDo7bb0Ts4o&amp;t=975s"/>
+    <hyperlink ref="D224" r:id="rId223" display="https://www.youtube.com/watch?v=lQ2yjMzByCI&amp;t=213s"/>
+    <hyperlink ref="D225" r:id="rId224" display="https://www.youtube.com/watch?v=ryJ7MtDof9Y&amp;t=681s"/>
+    <hyperlink ref="D226" r:id="rId225" display="https://www.youtube.com/watch?v=24MOyiODODk&amp;t=1929s"/>
+    <hyperlink ref="D227" r:id="rId226" display="https://www.youtube.com/watch?v=PIpqGqIK22g&amp;t=32s"/>
+    <hyperlink ref="D228" r:id="rId227" display="https://www.youtube.com/watch?v=BWSxerD3LDc&amp;t=319s"/>
+    <hyperlink ref="D229" r:id="rId228" display="https://www.youtube.com/watch?v=UrEJ7oAhcX8&amp;t=1744s"/>
+    <hyperlink ref="D230" r:id="rId229" display="https://www.youtube.com/watch?v=GbGphIW_pwU&amp;t=178s"/>
+    <hyperlink ref="D231" r:id="rId230" display="https://www.youtube.com/watch?v=rAkxQk_SimU&amp;t=3773s"/>
+    <hyperlink ref="D232" r:id="rId231" display="https://www.youtube.com/watch?v=jwYlYq6oGIU&amp;t=602s"/>
+    <hyperlink ref="D233" r:id="rId232" display="https://www.youtube.com/watch?v=DcameSrKBOM&amp;t=853s"/>
+    <hyperlink ref="D234" r:id="rId233" display="https://www.youtube.com/watch?v=oE9qrxR7DpI&amp;t=2077s"/>
+    <hyperlink ref="D235" r:id="rId234" display="https://www.youtube.com/watch?v=MXciFLdLVSY&amp;t=917s"/>
+    <hyperlink ref="D236" r:id="rId235" display="https://www.youtube.com/watch?v=1f77ar1m7Ks&amp;t=2970s"/>
+    <hyperlink ref="D237" r:id="rId236" display="https://www.youtube.com/watch?v=6eBEz91Zwh8&amp;t=1947s"/>
+    <hyperlink ref="D238" r:id="rId237" display="https://www.youtube.com/watch?v=OALASDJOKb8&amp;t=2925s"/>
+    <hyperlink ref="D239" r:id="rId238" display="https://www.youtube.com/watch?v=TLv5OWfkU8U&amp;t=510s"/>
+    <hyperlink ref="D240" r:id="rId239" display="https://www.youtube.com/watch?v=pUUoRExmU1E&amp;t=411s"/>
+    <hyperlink ref="D241" r:id="rId240" display="https://www.youtube.com/watch?v=GZG9nDbIgXM&amp;t=2075s"/>
+    <hyperlink ref="D242" r:id="rId241" display="https://www.youtube.com/watch?v=r4o0Vg6NQNc&amp;t=6654s"/>
+    <hyperlink ref="D243" r:id="rId242" display="https://www.youtube.com/watch?v=HOkBohJhbPE&amp;t=2974s"/>
+    <hyperlink ref="D244" r:id="rId243" display="https://www.youtube.com/watch?v=StCt0Vr9CU4&amp;t=342s"/>
+    <hyperlink ref="D245" r:id="rId244" display="https://www.youtube.com/watch?v=3n3meg4bfnI&amp;t=1250s"/>
+    <hyperlink ref="D246" r:id="rId245" display="https://www.youtube.com/watch?v=sVg7ZFD2dyg&amp;t=6465s"/>
+    <hyperlink ref="D247" r:id="rId246" display="https://www.youtube.com/watch?v=Ks19MD2LRUw&amp;t=1335s"/>
+    <hyperlink ref="D248" r:id="rId247" display="https://www.youtube.com/watch?v=Aw5ynnoQnQE&amp;t=6564s"/>
+    <hyperlink ref="D249" r:id="rId248" display="https://www.youtube.com/watch?v=9Ez5806fqiw&amp;t=6156s"/>
+    <hyperlink ref="D250" r:id="rId249" display="https://www.youtube.com/watch?v=DQ17hv_KGAE&amp;t=351s"/>
+    <hyperlink ref="D251" r:id="rId250" display="https://www.youtube.com/watch?v=7rfe_gEbcvY&amp;t=69s"/>
+    <hyperlink ref="D252" r:id="rId251" display="https://www.youtube.com/watch?v=OPpf7EGdKeY&amp;t=82s"/>
+    <hyperlink ref="D253" r:id="rId252" display="https://www.youtube.com/watch?v=9GbYnL0tvcg&amp;t=1201s"/>
+    <hyperlink ref="D254" r:id="rId253" display="https://www.youtube.com/watch?v=2mGviC7sN1Y&amp;t=742s"/>
+    <hyperlink ref="D255" r:id="rId254" display="https://www.youtube.com/watch?v=J1oQ6t6XSuM&amp;t=1023s"/>
+    <hyperlink ref="D256" r:id="rId255" display="https://www.youtube.com/watch?v=iSIdXpAd76I&amp;t=781s"/>
+    <hyperlink ref="D257" r:id="rId256" display="https://www.youtube.com/watch?v=O5SvwYGbXCE&amp;t=5759s"/>
+    <hyperlink ref="D258" r:id="rId257" display="https://www.youtube.com/watch?v=K8fgPqaaJrA&amp;t=1036s"/>
+    <hyperlink ref="D259" r:id="rId258" display="https://www.youtube.com/watch?v=zgQbOmPp9pk&amp;t=2226s"/>
+    <hyperlink ref="D260" r:id="rId259" display="https://www.youtube.com/watch?v=pHR9Y_R6DGQ&amp;t=602s"/>
+    <hyperlink ref="D261" r:id="rId260" display="https://www.youtube.com/watch?v=lHNtdUcq2_A&amp;t=6525s"/>
+    <hyperlink ref="D262" r:id="rId261" display="https://www.youtube.com/watch?v=EcfG7zdjBYQ&amp;t=5879s"/>
+    <hyperlink ref="D263" r:id="rId262" display="https://www.youtube.com/watch?v=iSIdXpAd76I&amp;t=475s"/>
+    <hyperlink ref="D264" r:id="rId263" display="https://www.youtube.com/watch?v=lNwXQrpMfhM&amp;t=1388s"/>
+    <hyperlink ref="D265" r:id="rId264" display="https://www.youtube.com/watch?v=iZr9uku31qI&amp;t=974s"/>
+    <hyperlink ref="D266" r:id="rId265" display="https://www.youtube.com/watch?v=dcrF0fcizRA&amp;t=7832s"/>
+    <hyperlink ref="D267" r:id="rId266" display="https://www.youtube.com/watch?v=u3H8oA9fMXk&amp;t=104s"/>
+    <hyperlink ref="D268" r:id="rId267" display="https://www.youtube.com/watch?v=jocluVfUT48&amp;t=118s"/>
+    <hyperlink ref="D269" r:id="rId268" display="https://www.youtube.com/watch?v=C_IXiaaAow8&amp;t=263s"/>
+    <hyperlink ref="D270" r:id="rId269" display="https://www.youtube.com/watch?v=NEWpNB8q2cs&amp;t=499s"/>
+    <hyperlink ref="D271" r:id="rId270" display="https://www.youtube.com/watch?v=YbQ3V93arTA&amp;t=1433s"/>
+    <hyperlink ref="D272" r:id="rId271" display="https://www.youtube.com/watch?v=fzfB0mxWFRY&amp;t=179s"/>
+    <hyperlink ref="D273" r:id="rId272" display="https://www.youtube.com/watch?v=vGUm_5F0zbI&amp;t=790s"/>
+    <hyperlink ref="D274" r:id="rId273" display="https://www.youtube.com/watch?v=CSBjx9ri7aI&amp;t=650s"/>
+    <hyperlink ref="D275" r:id="rId274" display="https://www.youtube.com/watch?v=9EaLkRsP3Ps&amp;t=1411s"/>
+    <hyperlink ref="D276" r:id="rId275" display="https://www.youtube.com/watch?v=3HutEP1zOds&amp;t=3456s"/>
+    <hyperlink ref="D277" r:id="rId276" display="https://www.youtube.com/watch?v=YN6xuSz86PA&amp;t=1527s"/>
+    <hyperlink ref="D278" r:id="rId277" display="https://www.youtube.com/watch?v=AjQkYpuB6Dc&amp;t=1018s"/>
+    <hyperlink ref="D279" r:id="rId278" display="https://www.youtube.com/watch?v=7rfe_gEbcvY&amp;t=198s"/>
+    <hyperlink ref="D280" r:id="rId279" display="https://www.youtube.com/watch?v=s_PFLeOKK8U&amp;t=1811s"/>
+    <hyperlink ref="D281" r:id="rId280" display="https://www.youtube.com/watch?v=CO0mpeAGeak&amp;t=373s"/>
+    <hyperlink ref="D282" r:id="rId281" display="https://www.youtube.com/watch?v=p2NgeOyvtZs&amp;t=3151s"/>
+    <hyperlink ref="D283" r:id="rId282" display="https://www.youtube.com/watch?v=TPShfpgrg6k&amp;t=338s"/>
+    <hyperlink ref="D284" r:id="rId283" display="https://www.youtube.com/watch?v=QepY2n76x2w&amp;t=4079s"/>
+    <hyperlink ref="D285" r:id="rId284" display="https://www.youtube.com/watch?v=J3lK1h2j7Lo&amp;t=4319s"/>
+    <hyperlink ref="D286" r:id="rId285" display="https://www.youtube.com/watch?v=kz72ug8K3nc&amp;t=294s"/>
+    <hyperlink ref="D287" r:id="rId286" display="https://www.youtube.com/watch?v=OALASDJOKb8&amp;t=1390s"/>
+    <hyperlink ref="D288" r:id="rId287" display="https://www.youtube.com/watch?v=GrNe1flIAJo&amp;t=682s"/>
+    <hyperlink ref="D289" r:id="rId288" display="https://www.youtube.com/watch?v=g6yvs1f4S1s&amp;t=5685s"/>
+    <hyperlink ref="D290" r:id="rId289" display="https://www.youtube.com/watch?v=_FsOnRDIJQQ&amp;t=4250s"/>
+    <hyperlink ref="D291" r:id="rId290" display="https://www.youtube.com/watch?v=jPf73XVPQro&amp;t=231s"/>
+    <hyperlink ref="D292" r:id="rId291" display="https://www.youtube.com/watch?v=24MOyiODODk&amp;t=4655s"/>
+    <hyperlink ref="D293" r:id="rId292" display="https://www.youtube.com/watch?v=mpg2dM5DrGg&amp;t=1336s"/>
+    <hyperlink ref="D294" r:id="rId293" display="https://www.youtube.com/watch?v=RPJg_lUfHvI&amp;t=5887s"/>
+    <hyperlink ref="D295" r:id="rId294" display="https://www.youtube.com/watch?v=GbGphIW_pwU&amp;t=129s"/>
+    <hyperlink ref="D296" r:id="rId295" display="https://www.youtube.com/watch?v=K8fgPqaaJrA&amp;t=1036s"/>
+    <hyperlink ref="D297" r:id="rId296" display="https://www.youtube.com/watch?v=zcB4iv0Jzbw&amp;t=8s"/>
+    <hyperlink ref="D298" r:id="rId297" display="https://www.youtube.com/watch?v=OQqWR2Zii_8&amp;t=4216s"/>
+    <hyperlink ref="D299" r:id="rId298" display="https://www.youtube.com/watch?v=InhONwjflFE&amp;t=68s"/>
+    <hyperlink ref="D300" r:id="rId299" display="https://www.youtube.com/watch?v=NZtdIIX5Xm4&amp;t=941s"/>
+    <hyperlink ref="D301" r:id="rId300" display="https://www.youtube.com/watch?v=_4P2MxdLA6M&amp;t=13s"/>
+    <hyperlink ref="D302" r:id="rId301" display="https://www.youtube.com/watch?v=x8yoLCYSzVw&amp;t=6395s"/>
+    <hyperlink ref="D303" r:id="rId302" display="https://www.youtube.com/watch?v=gl486Y5GB0w&amp;t=4819s"/>
+    <hyperlink ref="D304" r:id="rId303" display="https://www.youtube.com/watch?v=GdJVLA16hUc&amp;t=1867s"/>
+    <hyperlink ref="D305" r:id="rId304" display="https://www.youtube.com/watch?v=8bORUKi26Cc&amp;t=188s"/>
+    <hyperlink ref="D306" r:id="rId305" display="https://www.youtube.com/watch?v=lsciLyjICMk&amp;t=5739s"/>
+    <hyperlink ref="D307" r:id="rId306" display="https://www.youtube.com/watch?v=abGujUVqjiQ&amp;t=220s"/>
+    <hyperlink ref="D308" r:id="rId307" display="https://www.youtube.com/watch?v=z7IjzketUfY&amp;t=2964s"/>
+    <hyperlink ref="D309" r:id="rId308" display="https://www.youtube.com/watch?v=NudrNCdBxAE&amp;t=58s"/>
+    <hyperlink ref="D310" r:id="rId309" display="https://www.youtube.com/watch?v=r6RJWuLenrU&amp;t=8420s"/>
+    <hyperlink ref="D311" r:id="rId310" display="https://www.youtube.com/watch?v=n9GK7BR0sq0&amp;t=56s"/>
+    <hyperlink ref="D312" r:id="rId311" display="https://www.youtube.com/watch?v=hX8S64wZSDU&amp;t=2420s"/>
+    <hyperlink ref="D313" r:id="rId312" display="https://www.youtube.com/watch?v=94KUKlC1rlc&amp;t=8098s"/>
+    <hyperlink ref="D314" r:id="rId313" display="https://www.youtube.com/watch?v=7jaQmQj3Wgo&amp;t=1532s"/>
+    <hyperlink ref="D315" r:id="rId314" display="https://www.youtube.com/watch?v=yMJXOjtvUkc&amp;t=302s"/>
+    <hyperlink ref="D316" r:id="rId315" display="https://www.youtube.com/watch?v=fKXuUv7QVbE&amp;t=542s"/>
+    <hyperlink ref="D317" r:id="rId316" display="https://www.youtube.com/watch?v=8V9tq1pe8eI&amp;t=1294s"/>
+    <hyperlink ref="D318" r:id="rId317" display="https://www.youtube.com/watch?v=bIppytTQ0aI&amp;t=4899s"/>
+    <hyperlink ref="D319" r:id="rId318" display="https://www.youtube.com/watch?v=g6yvs1f4S1s&amp;t=5929s"/>
+    <hyperlink ref="D320" r:id="rId319" display="https://www.youtube.com/watch?v=tN1putCohn4&amp;t=4616s"/>
+    <hyperlink ref="D321" r:id="rId320" display="https://www.youtube.com/watch?v=ud9s8aerIJE&amp;t=213s"/>
+    <hyperlink ref="D322" r:id="rId321" display="https://www.youtube.com/watch?v=wBpVQln4MIU&amp;t=638s"/>
+    <hyperlink ref="D323" r:id="rId322" display="https://www.youtube.com/watch?v=nqovdxY2Mmw&amp;t=1751s"/>
+    <hyperlink ref="D324" r:id="rId323" display="https://www.youtube.com/watch?v=fgTr47WT4rI&amp;t=935s"/>
+    <hyperlink ref="D325" r:id="rId324" display="https://www.youtube.com/watch?v=40E_FNfIXWs&amp;t=34s"/>
+    <hyperlink ref="D326" r:id="rId325" display="https://www.youtube.com/watch?v=ndssE4SMOaA&amp;t=6364s"/>
+    <hyperlink ref="D327" r:id="rId326" display="https://www.youtube.com/watch?v=XiNcefaL6ug&amp;t=214s"/>
+    <hyperlink ref="D328" r:id="rId327" display="https://www.youtube.com/watch?v=v7PglYyVLPQ&amp;t=1935s"/>
+    <hyperlink ref="D329" r:id="rId328" display="https://www.youtube.com/watch?v=3PDJDym1ZXQ&amp;t=4156s"/>
+    <hyperlink ref="D330" r:id="rId329" display="https://www.youtube.com/watch?v=d3LdJzLdpCI&amp;t=2243s"/>
+    <hyperlink ref="D331" r:id="rId330" display="https://www.youtube.com/watch?v=NV_G6wX2xtQ&amp;t=465s"/>
+    <hyperlink ref="D332" r:id="rId331" display="https://www.youtube.com/watch?v=VWZCDkOGm1o&amp;t=640s"/>
+    <hyperlink ref="D333" r:id="rId332" display="https://www.youtube.com/watch?v=TVy2hkF_G9c&amp;t=6989s"/>
+    <hyperlink ref="D334" r:id="rId333" display="https://www.youtube.com/watch?v=EcfG7zdjBYQ&amp;t=4186s"/>
+    <hyperlink ref="D335" r:id="rId334" display="https://www.youtube.com/watch?v=XBDHpKH8Ar0&amp;t=2313s"/>
+    <hyperlink ref="D336" r:id="rId335" display="https://www.youtube.com/watch?v=NTG7NZgQals&amp;t=497s"/>
+    <hyperlink ref="D337" r:id="rId336" display="https://www.youtube.com/watch?v=vsDoBhQJ1hY&amp;t=1726s"/>
+    <hyperlink ref="D338" r:id="rId337" display="https://www.youtube.com/watch?v=m3Clq7uulPg&amp;t=6246s"/>
+    <hyperlink ref="D339" r:id="rId338" display="https://www.youtube.com/watch?v=kzEvSIem_n4&amp;t=406s"/>
+    <hyperlink ref="D340" r:id="rId339" display="https://www.youtube.com/watch?v=JV6ZUdw_lXQ&amp;t=6184s"/>
+    <hyperlink ref="D341" r:id="rId340" display="https://www.youtube.com/watch?v=tdnuZzBifR4&amp;t=229s"/>
+    <hyperlink ref="D342" r:id="rId341" display="https://www.youtube.com/watch?v=J3lK1h2j7Lo&amp;t=8797s"/>
+    <hyperlink ref="D343" r:id="rId342" display="https://www.youtube.com/watch?v=FUS0hsPCtMs&amp;t=1006s"/>
+    <hyperlink ref="D344" r:id="rId343" display="https://www.youtube.com/watch?v=BWSxerD3LDc&amp;t=1800s"/>
+    <hyperlink ref="D345" r:id="rId344" display="https://www.youtube.com/watch?v=WyHI8VAPJzw&amp;t=7170s"/>
+    <hyperlink ref="D346" r:id="rId345" display="https://www.youtube.com/watch?v=zGtfxNItG6E&amp;t=303s"/>
+    <hyperlink ref="D347" r:id="rId346" display="https://www.youtube.com/watch?v=yNr1Glj5MdQ&amp;t=305s"/>
+    <hyperlink ref="D348" r:id="rId347" display="https://www.youtube.com/watch?v=jwYlYq6oGIU&amp;t=1774s"/>
+    <hyperlink ref="D349" r:id="rId348" display="https://www.youtube.com/watch?v=glntkvUyUZU&amp;t=5744s"/>
+    <hyperlink ref="D350" r:id="rId349" display="https://www.youtube.com/watch?v=9_tDN6MkiYc&amp;t=18s"/>
+    <hyperlink ref="D351" r:id="rId350" display="https://www.youtube.com/watch?v=HeXezF4VrJ8&amp;t=939s"/>
+    <hyperlink ref="D352" r:id="rId351" display="https://www.youtube.com/watch?v=EvSVykyXNGE&amp;t=7293s"/>
+    <hyperlink ref="D353" r:id="rId352" display="https://www.youtube.com/watch?v=rUafZNR1GxY&amp;t=399s"/>
+    <hyperlink ref="D354" r:id="rId353" display="https://www.youtube.com/watch?v=xJMJ97AX5zE&amp;t=7089s"/>
+    <hyperlink ref="D355" r:id="rId354" display="https://www.youtube.com/watch?v=yGMZGa090vU&amp;t=8071s"/>
+    <hyperlink ref="D356" r:id="rId355" display="https://www.youtube.com/watch?v=GimA7_uhyWg&amp;t=1635s"/>
+    <hyperlink ref="D357" r:id="rId356" display="https://www.youtube.com/watch?v=o0vdJUDd7hQ&amp;t=356s"/>
+    <hyperlink ref="D358" r:id="rId357" display="https://www.youtube.com/watch?v=od_ZPJBFYUA&amp;t=6389s"/>
+    <hyperlink ref="D359" r:id="rId358" display="https://www.youtube.com/watch?v=J0CIPlClrbk&amp;t=22s"/>
+    <hyperlink ref="D360" r:id="rId359" display="https://www.youtube.com/watch?v=RqQe0ewBrD0&amp;t=5280s"/>
+    <hyperlink ref="D361" r:id="rId360" display="https://www.youtube.com/watch?v=f8iA6v4mRAY&amp;t=2s"/>
+    <hyperlink ref="D362" r:id="rId361" display="https://www.youtube.com/watch?v=pvormvsvwNc&amp;t=32s"/>
+    <hyperlink ref="D363" r:id="rId362" display="https://www.youtube.com/watch?v=hlC5TDHXSnQ&amp;t=335s"/>
+    <hyperlink ref="D364" r:id="rId363" display="https://www.youtube.com/watch?v=HRqQ03eeLmU&amp;t=712s"/>
+    <hyperlink ref="D365" r:id="rId364" display="https://www.youtube.com/watch?v=Ssg7vpw8Zb4&amp;t=122s"/>
+    <hyperlink ref="D366" r:id="rId365" display="https://www.youtube.com/watch?v=n8sYBXvKJFo&amp;t=87s"/>
+    <hyperlink ref="D367" r:id="rId366" display="https://www.youtube.com/watch?v=PlyZ7qY2UX0&amp;t=1449s"/>
+    <hyperlink ref="D368" r:id="rId367" display="https://www.youtube.com/watch?v=Z3c_UEvxq3U&amp;t=1023s"/>
+    <hyperlink ref="D369" r:id="rId368" display="https://www.youtube.com/watch?v=od_ZPJBFYUA&amp;t=5204s"/>
+    <hyperlink ref="D370" r:id="rId369" display="https://www.youtube.com/watch?v=0NzVTxwJbfo&amp;t=233s"/>
+    <hyperlink ref="D371" r:id="rId370" display="https://www.youtube.com/watch?v=vRtC1qfqd6s&amp;t=1120s"/>
+    <hyperlink ref="D372" r:id="rId371" display="https://www.youtube.com/watch?v=U8KJtDtBtSU&amp;t=168s"/>
+    <hyperlink ref="D373" r:id="rId372" display="https://www.youtube.com/watch?v=ltPlqlczJyY&amp;t=126s"/>
+    <hyperlink ref="D374" r:id="rId373" display="https://www.youtube.com/watch?v=mpg2dM5DrGg&amp;t=4309s"/>
+    <hyperlink ref="D375" r:id="rId374" display="https://www.youtube.com/watch?v=EvSVykyXNGE&amp;t=4368s"/>
+    <hyperlink ref="D376" r:id="rId375" display="https://www.youtube.com/watch?v=G1Bomj1CKnk&amp;t=101s"/>
+    <hyperlink ref="D377" r:id="rId376" display="https://www.youtube.com/watch?v=dWIJFBbJSn4&amp;t=52s"/>
+    <hyperlink ref="D378" r:id="rId377" display="https://www.youtube.com/watch?v=5C7iQd4nGBE&amp;t=259s"/>
+    <hyperlink ref="D379" r:id="rId378" display="https://www.youtube.com/watch?v=zLSi0My6vuQ&amp;t=2268s"/>
+    <hyperlink ref="D380" r:id="rId379" display="https://www.youtube.com/watch?v=TPShfpgrg6k&amp;t=3776s"/>
+    <hyperlink ref="D381" r:id="rId380" display="https://www.youtube.com/watch?v=EcfG7zdjBYQ&amp;t=2991s"/>
+    <hyperlink ref="D382" r:id="rId381" display="https://www.youtube.com/watch?v=fI1BI4d5KFU&amp;t=5541s"/>
+    <hyperlink ref="D383" r:id="rId382" display="https://www.youtube.com/watch?v=lREyKzqpCjE&amp;t=4970s"/>
+    <hyperlink ref="D384" r:id="rId383" display="https://www.youtube.com/watch?v=vA4ywYo4QbY&amp;t=673s"/>
+    <hyperlink ref="D385" r:id="rId384" display="https://www.youtube.com/watch?v=_FsOnRDIJQQ&amp;t=1415s"/>
+    <hyperlink ref="D386" r:id="rId385" display="https://www.youtube.com/watch?v=tsI6CFPkguQ&amp;t=5098s"/>
+    <hyperlink ref="D387" r:id="rId386" display="https://www.youtube.com/watch?v=i5qd1RMfkRE&amp;t=1773s"/>
+    <hyperlink ref="D388" r:id="rId387" display="https://www.youtube.com/watch?v=sdw58rC22GY&amp;t=603s"/>
+    <hyperlink ref="D389" r:id="rId388" display="https://www.youtube.com/watch?v=MhHCQ_cb3T8&amp;t=7353s"/>
+    <hyperlink ref="D390" r:id="rId389" display="https://www.youtube.com/watch?v=r6RJWuLenrU&amp;t=3172s"/>
+    <hyperlink ref="D391" r:id="rId390" display="https://www.youtube.com/watch?v=LC2QScFT5QI&amp;t=3411s"/>
+    <hyperlink ref="D392" r:id="rId391" display="https://www.youtube.com/watch?v=OeHxe75lMNE&amp;t=5911s"/>
+    <hyperlink ref="D393" r:id="rId392" display="https://www.youtube.com/watch?v=L9YI383QOsU&amp;t=1226s"/>
+    <hyperlink ref="D394" r:id="rId393" display="https://www.youtube.com/watch?v=jwYlYq6oGIU&amp;t=5837s"/>
+    <hyperlink ref="D395" r:id="rId394" display="https://www.youtube.com/watch?v=K_ODmf7NbaE&amp;t=119s"/>
+    <hyperlink ref="D396" r:id="rId395" display="https://www.youtube.com/watch?v=6Pr093ZQF5A&amp;t=2328s"/>
+    <hyperlink ref="D397" r:id="rId396" display="https://www.youtube.com/watch?v=Wt0cStp1_Ww&amp;t=4437s"/>
+    <hyperlink ref="D398" r:id="rId397" display="https://www.youtube.com/watch?v=glntkvUyUZU&amp;t=7158s"/>
+    <hyperlink ref="D399" r:id="rId398" display="https://www.youtube.com/watch?v=yhqfWewF0HE&amp;t=322s"/>
+    <hyperlink ref="D400" r:id="rId399" display="https://www.youtube.com/watch?v=WM2W7dCq3tA&amp;t=2379s"/>
+    <hyperlink ref="D401" r:id="rId400" display="https://www.youtube.com/watch?v=iSrsHDQASVs&amp;t=4835s"/>
+    <hyperlink ref="D402" r:id="rId401" display="https://www.youtube.com/watch?v=SCHpdjoye24&amp;t=16s"/>
+    <hyperlink ref="D403" r:id="rId402" display="https://www.youtube.com/watch?v=FuJumQJG4tA&amp;t=182s"/>
+    <hyperlink ref="D404" r:id="rId403" display="https://www.youtube.com/watch?v=zaHwaMoI314&amp;t=286s"/>
+    <hyperlink ref="D405" r:id="rId404" display="https://www.youtube.com/watch?v=tP3ou_3RGVg&amp;t=6269s"/>
+    <hyperlink ref="D406" r:id="rId405" display="https://www.youtube.com/watch?v=iZjzaNo_vDk&amp;t=1228s"/>
+    <hyperlink ref="D407" r:id="rId406" display="https://www.youtube.com/watch?v=LyvjoFQdsrk&amp;t=131s"/>
+    <hyperlink ref="D408" r:id="rId407" display="https://www.youtube.com/watch?v=EHEujJfFor4&amp;t=240s"/>
+    <hyperlink ref="D409" r:id="rId408" display="https://www.youtube.com/watch?v=BEH6RWDGy7c&amp;t=2836s"/>
+    <hyperlink ref="D410" r:id="rId409" display="https://www.youtube.com/watch?v=2QUV1PPNsZU&amp;t=5735s"/>
+    <hyperlink ref="D411" r:id="rId410" display="https://www.youtube.com/watch?v=HfbVSHnOyWM&amp;t=970s"/>
+    <hyperlink ref="D412" r:id="rId411" display="https://www.youtube.com/watch?v=qD1tBFRTh3c&amp;t=6585s"/>
+    <hyperlink ref="D413" r:id="rId412" display="https://www.youtube.com/watch?v=8ek8uhoEQ9w&amp;t=33s"/>
+    <hyperlink ref="D414" r:id="rId413" display="https://www.youtube.com/watch?v=p0EhpIh1IBY&amp;t=1182s"/>
+    <hyperlink ref="D415" r:id="rId414" display="https://www.youtube.com/watch?v=gFp__jUGAXg&amp;t=157s"/>
+    <hyperlink ref="D416" r:id="rId415" display="https://www.youtube.com/watch?v=Xo8TI7qnHtE&amp;t=330s"/>
+    <hyperlink ref="D417" r:id="rId416" display="https://www.youtube.com/watch?v=Ba_ffkYzPds&amp;t=7348s"/>
+    <hyperlink ref="D418" r:id="rId417" display="https://www.youtube.com/watch?v=xg7ZaRa81Ok&amp;t=1406s"/>
+    <hyperlink ref="D419" r:id="rId418" display="https://www.youtube.com/watch?v=P0U8Cuf5lGM&amp;t=3016s"/>
+    <hyperlink ref="D420" r:id="rId419" display="https://www.youtube.com/watch?v=TrgPuJHj7p8&amp;t=6793s"/>
+    <hyperlink ref="D421" r:id="rId420" display="https://www.youtube.com/watch?v=a5CrSSneht4&amp;t=1862s"/>
+    <hyperlink ref="D422" r:id="rId421" display="https://www.youtube.com/watch?v=Fc4drtbgDb0&amp;t=6615s"/>
+    <hyperlink ref="D423" r:id="rId422" display="https://www.youtube.com/watch?v=moEFBCub_CI&amp;t=353s"/>
+    <hyperlink ref="D424" r:id="rId423" display="https://www.youtube.com/watch?v=EFEFEcYl9es&amp;t=4785s"/>
+    <hyperlink ref="D425" r:id="rId424" display="https://www.youtube.com/watch?v=fgTr47WT4rI&amp;t=8039s"/>
+    <hyperlink ref="D426" r:id="rId425" display="https://www.youtube.com/watch?v=GENdU9GxZ9g&amp;t=7633s"/>
+    <hyperlink ref="D427" r:id="rId426" display="https://www.youtube.com/watch?v=9LivRu_hIow&amp;t=558s"/>
+    <hyperlink ref="D428" r:id="rId427" display="https://www.youtube.com/watch?v=GQgS2ruEJAs&amp;t=4717s"/>
+    <hyperlink ref="D429" r:id="rId428" display="https://www.youtube.com/watch?v=dpyxmIPS1Sw&amp;t=1851s"/>
+    <hyperlink ref="D430" r:id="rId429" display="https://www.youtube.com/watch?v=lgN6dTJvCvA&amp;t=369s"/>
+    <hyperlink ref="D431" r:id="rId430" display="https://www.youtube.com/watch?v=UtcBPDTBiko&amp;t=1637s"/>
+    <hyperlink ref="D432" r:id="rId431" display="https://www.youtube.com/watch?v=PNeuhGDHGyc&amp;t=477s"/>
+    <hyperlink ref="D433" r:id="rId432" display="https://www.youtube.com/watch?v=djxTgqBL2lw&amp;t=19729s"/>
+    <hyperlink ref="D434" r:id="rId433" display="https://www.youtube.com/watch?v=3yy8hKh3Z48&amp;t=174s"/>
+    <hyperlink ref="D435" r:id="rId434" display="https://www.youtube.com/watch?v=ok43drtlLz0&amp;t=2729s"/>
+    <hyperlink ref="D436" r:id="rId435" display="https://www.youtube.com/watch?v=VzghU3Dg_Qk&amp;t=749s"/>
+    <hyperlink ref="D437" r:id="rId436" display="https://www.youtube.com/watch?v=i4cQkYkr8Lo&amp;t=1413s"/>
+    <hyperlink ref="D438" r:id="rId437" display="https://www.youtube.com/watch?v=df634Rr9A54&amp;t=660s"/>
+    <hyperlink ref="D439" r:id="rId438" display="https://www.youtube.com/watch?v=gQg3cyWahgc&amp;t=8100s"/>
+    <hyperlink ref="D440" r:id="rId439" display="https://www.youtube.com/watch?v=BxSZ84hmtmE&amp;t=415s"/>
+    <hyperlink ref="D441" r:id="rId440" display="https://www.youtube.com/watch?v=wH4L9NiHHIE&amp;t=2026s"/>
+    <hyperlink ref="D442" r:id="rId441" display="https://www.youtube.com/watch?v=G7eFHY90kFs&amp;t=4015s"/>
+    <hyperlink ref="D443" r:id="rId442" display="https://www.youtube.com/watch?v=UfpByy3jOCY&amp;t=497s"/>
+    <hyperlink ref="D444" r:id="rId443" display="https://www.youtube.com/watch?v=AXjhxdgCkNw&amp;t=551s"/>
+    <hyperlink ref="D445" r:id="rId444" display="https://www.youtube.com/watch?v=J3lK1h2j7Lo&amp;t=2882s"/>
+    <hyperlink ref="D446" r:id="rId445" display="https://www.youtube.com/watch?v=FGUTSQb5dPM&amp;t=315s"/>
+    <hyperlink ref="D447" r:id="rId446" display="https://www.youtube.com/watch?v=mpg2dM5DrGg&amp;t=5691s"/>
+    <hyperlink ref="D448" r:id="rId447" display="https://www.youtube.com/watch?v=k1ni27c9C2k&amp;t=535s"/>
+    <hyperlink ref="D449" r:id="rId448" display="https://www.youtube.com/watch?v=oCsHNgql560&amp;t=5776s"/>
+    <hyperlink ref="D450" r:id="rId449" display="https://www.youtube.com/watch?v=oCsHNgql560&amp;t=2315s"/>
+    <hyperlink ref="D451" r:id="rId450" display="https://www.youtube.com/watch?v=xHyS_6Hq5GA&amp;t=209s"/>
+    <hyperlink ref="D452" r:id="rId451" display="https://www.youtube.com/watch?v=W_ofzCKTKvY&amp;t=558s"/>
+    <hyperlink ref="D453" r:id="rId452" display="https://www.youtube.com/watch?v=J3lK1h2j7Lo&amp;t=3467s"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Work/Modern Ways/Talk Time/Lesson Deployment2/Product/Twogram Threegram Youtube Link Selected.xlsx
+++ b/Work/Modern Ways/Talk Time/Lesson Deployment2/Product/Twogram Threegram Youtube Link Selected.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">video_url</t>
   </si>
   <si>
-    <t xml:space="preserve">id</t>
+    <t xml:space="preserve">video_id</t>
   </si>
   <si>
     <t xml:space="preserve">benimle geliyor musun</t>
@@ -2968,8 +2968,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F142" activeCellId="0" sqref="F142"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
